--- a/deuChatbot/research_result/table_to_json(2500_500).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20873,6 +20873,6813 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 전혀 반영하지 않고 있으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공된 실기시험의 세부사항을 무시하고, 관련 없는 내용을 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 상반된 정보를 제공합니다. 원본 텍스트의 내용과는 전혀 다른 주제를 다루고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 디자인조형학과의 실기시험에 대한 정보가 포함되어 있지 않습니다. 따라서 주제와의 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다. 문장은 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 없습니다. 주제가 전환되면서 혼란스러운 느낌을 줍니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미적 적절성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6208076654889697</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험에 대한 내용이 포함되어 있지 않습니다. 디자인조형학과는 나군에서 조기취업형 계약학과로 분류되지 않아, 학생부종합전형이나 조기취업형 계약학과 전형에 해당하는 정보만 제공되었습니다.
+디자인조형학과의 실기시험에 대한 자세한 내용은 디자인조형학과의 홈페이지나 입학처 웹사이트를 참조하거나, 직접 학교에 문의하시는 것이 가장 정확할 것입니다. 
+추가로 필요한 정보가 있다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기 및 시간에 대한 정보를 정확하게 전달하고 있습니다. 그러나 "이러한 준비물과 실기주제, 화지크기 및 시간은 두 가지 종목 모두 동일합니다."라는 문장은 약간의 오해를 불러일으킬 수 있습니다. '기초디자인'과 '사고의 전환'의 준비물은 동일하지만, 화지 크기는 다릅니다. 이로 인해 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공합니다. 실기 종목과 준비물, 실기 주제, 화지 크기 및 시간에 대한 설명이 일관되며, 전반적으로 원본과 잘 맞아떨어집니다. 그러나 마지막 문장에서 화지 크기가 동일하다고 언급한 부분은 일관성에 약간의 문제를 일으킵니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있습니다. 실기 종목, 준비물, 실기 주제, 화지 크기 및 시간에 대한 정보가 모두 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 마지막 문장에서 화지 크기가 동일하다고 언급한 부분이 약간의 혼란을 줄 수 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 화지 크기에 대한 설명에서 약간의 부정확성이 있습니다. 이로 인해 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 잘 수행되었습니다. 그러나 일부 세부 사항에서 약간의 문제로 인해 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 모든 정보가 적절하게 표현되었습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8394513807356732</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지가 있습니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이러한 준비물과 실기주제, 화지크기 및 시간은 두 가지 종목 모두 동일합니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 축구 대회 목록을 잘 나열하고 있지만, 배드민턴 대회에 대한 정보는 포함되어 있지 않아 사실성이 떨어진다. 따라서 점수는 3으로 평가된다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 축구 대회에 대한 정보를 제공하지만, 원본 텍스트의 배드민턴 대회 목록이 누락되어 있어 일관성이 부족하다. 따라서 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 경기지도학과의 모집종목별 인정대회에 대한 질문에 적절하게 답변하고 있으나, 배드민턴 대회에 대한 정보가 없어서 완전한 관련성은 떨어진다. 점수는 4로 평가된다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있어 유창성이 뛰어나다. 따라서 점수는 5로 평가된다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 축구 대회 목록이 명확하게 나열되어 있어 일관성이 있다. 그러나 배드민턴 대회 정보의 부재로 인해 완전한 일관성은 부족하다. 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 축구 대회에 대한 정확한 정보를 제공하지만, 배드민턴 대회에 대한 정보가 누락되어 있어 정확성이 떨어진다. 점수는 3으로 평가된다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 유창성과 관련성에서 높은 점수를 받지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질은 4로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 질문의 맥락에 적절하게 반응하고 있지만, 배드민턴 대회에 대한 정보가 없어서 의미적으로 완전하지 않다. 점수는 4로 평가된다.
+9. Understandability Score (1-5): 5
+   - 설명: 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높다. 따라서 점수는 5로 평가된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8407365852897704</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 춘계한국고등학교축구연맹전
+2. 추계한국고등학교축구연맹전
+3. 대한축구협회장배전국고등학교축구대회
+4. 문화체육관광부장관기전국고등학교축구대회
+5. 문화체육관광부장관배전국고등학교축구대회
+6. 백운기전국고등학교축구대회
+7. 전국고등축구리그(권역별고교축구리그)
+8. 전국고등축구리그왕중왕전
+9. 무학기전국고등학교축구대회
+10. 청룡기전국고등학교축구대회
+11. 백록기전국고등학교축구대회
+12. 금강대기전국고등학교축구대회
+13. 대통령금배전국고등학교축구대회
+14. 금석배전국고등학생축구대회
+15. 부산MBC전국고등학생축구대회
+16. K리그 U18 챔피언십
+17. K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 경기지도학과의 모집에 참여할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용, 추첨 방식 및 예시가 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인 실기시험의 주제와 추첨 방식에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 왜곡이나 누락이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.9136032649509688</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 주제들 중 일부를 나열하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이들 중에서 각각 1개씩을 추첨하여 연결된 주제를 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영된다고 잘못된 정보를 제공하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답은 반영된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 포함하고 있지만, 질문의 핵심인 학생부 교과 전형에 대한 정보와는 관련이 적습니다. 따라서 부분적으로 관련성이 있지만, 주제에서 벗어난 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 원문과의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 정확성이 매우 낮습니다. 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 불일치가 크기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5985125497656263</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 결석일수에 따라 출결 점수가 반영됩니다. 결석일수와 반영점수는 다음과 같습니다:
+- 0~2일: 120점
+- 3~6일: 90점
+- 7~12일: 60점
+- 13~20일: 30점
+- 21일 이상: 0점
+따라서, 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지만, 나군 실기/실적(경기실적우수자전형)에서만 해당됩니다. 다른 전형에서는 출결 점수가 반영되지 않습니다.
+위 정보가 도움이 되셨기를 바랍니다. 추가로 궁금한 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 모집 인원에 대한 정보가 없다고 하여 원본의 내용을 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 공식 웹사이트를 참조하라는 제안은 어느 정도 관련성이 있지만, 주된 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 질문에 대한 답변이 아니기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5711678663633517</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 정원 내 모집인원이나 다군 일반 학생 전형으로 모집하는 인원 수가 없습니다. 다른 계열이나 단과대학에서 모집하는 인원 수만이 기재되어 있습니다. 더 자세한 정보를 얻기 위해서는 공식 입학 안내 웹사이트 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하거나 학교 관계자에게 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 의료보건생활대학 간호학과의 나군 일반학생 전형에서 총 22명의 신입생을 선발한다는 사실을 완전히 무시하고 있으며, "정원 내 모집 인원은 없습니다"라는 잘못된 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 모집 인원이 22명이라고 명시하고 있지만, 생성된 응답은 모집 인원이 없다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 모집 인원에 대한 질문에 대한 답변을 제공하지 않고, 대신 다른 정보(공식 홈페이지 링크 등)를 제시하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 잘못 전달하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 적절하지 않은 정보를 제공합니다. 그러나 일부 정보는 의미적으로 적절할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5772284604756658</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 없습니다. 해당 정보는 "정원 내 모집 인원": "-"로 표시되어 있습니다. 따라서 현재로서는 의료보건생활대학 간호학과 나군 일반학생 전형의 정원 내 모집 인원을 알 수 없습니다. 더 자세한 정보를 얻기 위해서는 공식 홈페이지 또는 입학처에 문의해 보시는 것이 좋겠습니다. [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 등급과 점수가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9036425248521335</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수는 수능 영어 과목의 성적을 등급으로 나눈 후, 각 등급에 따른 점수로 변환된 것입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 학생은 지원할 수 없으며, 이는 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 예술고 학생의 지원 자격이 없다고 명시했음에도 불구하고, 생성된 응답은 지원이 가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련성이 낮습니다. 원문에서의 주장을 반박하는 내용이므로, 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 사실적 불일치로 인해 전체적인 일관성이 떨어집니다. 내용이 일관되게 흐르지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 주장을 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7036184972017817</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 농어촌학생전형으로 지원 가능합니다. 예술고 학생은 특수목적고의 한 유형으로 분류되므로, 특수목적고에 해당하는 학교에서 재학 중이거나 졸업한 학생이라면 지원 자격이 있습니다.
+또한, 농어촌학생전형의 지원 자격과 제출 서류를 확인해야 합니다. 예술고 학생도 농어촌 지역에 거주하며 해당 학교에서 교육과정을 이수하였다면 지원 가능합니다. 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류를 제출하면 예술고 학생도 나군 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 기록과 배점을 정확하게 반영하고 있습니다. 그러나 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지만, 추가된 테이블 정보는 원본 텍스트와 일관성이 없습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 테이블이 원본 텍스트와의 연결이 약해져서 점수가 다소 낮아졌습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 테이블 정보가 맥락에 맞지 않아 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8766949580845692</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻었습니다:
+| 등급 | 제자리 멀리뛰기(여) | Z-런(여) |
+|------|-------------------|----------|
+| 4    | 218~221           | 14.80~14.99 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 부정확하게 전달하고 있습니다. 응답에서는 출결 상황에 대한 반영 비율을 확인할 수 없다고 언급하고 있으며, 이는 원본 텍스트의 명확한 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 정보인 12%의 비율을 직접적으로 다루지 않고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과의 연결이 부족하여 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 정보를 놓치고 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트의 핵심 정보가 누락되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6354440641925383</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 상황에 대한 반영 비율은 직접적으로 확인할 수 없습니다. 출결상황이 학생부종합전형에서 어떻게 반영되는지에 대한 정보는 "기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법" 섹션에서 찾을 수 있습니다. 
+해당 섹션의 내용을 바탕으로, 경기지도학과의 경우 결석일수에 따른 반영점수를 확인할 수 있습니다:
+- 0~2일: 120
+- 3~6일: 90
+- 7~12일: 60
+- 13~20일: 30
+- 21일이상: 0
+따라서, 경기지도학과의 출결 상황은 결석일수에 따라 위와 같이 반영됩니다. 하지만 이는 학생부종합전형에서의 반영 비율을 의미하는 것이 아니라, 실제 점수로 반영되는 방식입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452436032260203</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보(디자인조형학과의 세부 전공)를 포함하고 있지만, 이는 사실에 기반한 정보입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 요일에 대한 정보가 일치합니다. 추가된 정보도 원본의 내용을 보완하는 역할을 합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5275686840951729</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 잘 반영하고 있으며, 다른 학과의 경우도 언급하고 있습니다. 그러나 응용화학과에 대한 구체적인 정보가 없다는 점에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다. 다만, 응용화학과에 대한 구체적인 언급이 없다는 점에서 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 최저 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 응용화학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 사실적으로 정확하며, 수능 최저 기준이 없다는 점을 잘 반영하고 있습니다. 그러나 응용화학과에 대한 구체적인 정보가 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 약간의 일관성 및 정확성 부족이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 응용화학과에 대한 구체적인 언급이 부족하여 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4901447448093965</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서 내에서는 명시되어 있지 않습니다. 다른 학과의 경우 '수능최저기준 없음'이라고 되어 있지만, 응용화학과에 대한 구체적인 수능 최저기준이 언급되지 않았습니다.
+더 정확한 정보를 얻으려면, https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 확인해보시거나, 동의대학교 입학처로 직접 문의하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 심리학과와 스마트항만물류학과만 언급하고 있으며, 창업투자경영학과, 라이프융합학부, 경기지도학과는 누락되었습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 일부 학과만 언급하고 있어 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에 있는 모든 학과를 포함하지 않기 때문에 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답변하고 있으므로 관련성이 높습니다. 그러나 모든 학과를 언급하지 않아 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 중복 표현이 있어 점수를 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 모든 학과를 포함하지 않아 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 일부 학과만 언급하고 있어 정확성이 떨어집니다. 원본 텍스트의 모든 정보를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 결함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 적합한 의미를 전달하고 있으나, 모든 학과를 포함하지 않아 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 모든 정보를 포함하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.599202039614492</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과가 있습니다. 
+심리학과는 학과 분야로 신설되었으며, 스마트항만물류학과 또한 새로운 학과로 추가되었습니다.
+이 정보는 제공된 문맥에서 얻은 것입니다. 더 자세한 내용이나 변경사항이 있으면 공식 웹사이트를 확인해 보시기 바랍니다: https://ipsi.deu.ac.kr/main.do.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 서류 70%와 면접 30%라는 구체적인 수치가 명시되어 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 비율을 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보가 없다는 주장은 원본의 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다르며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 정보의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6483052802299268</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 추가적인 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 ICT융합공과대학을 언급하고 있지만, 원문에서는 의료·보건·생활대학과 공과대학도 포함되어 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 ICT융합공과대학에 대한 정보를 제공하지만, 원문에 명시된 다른 학과들에 대한 언급이 없으므로 일관성이 떨어집니다. 또한, 가산점 계산 방식에 대한 설명이 원문과 다소 다르게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 작성되었으며, 문법적으로도 큰 문제가 없습니다. 다만, "0.1을 곱한 점수가 추가로 반영됩니다" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 언급된 다른 학과들에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 다소 부족함이 있어 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 표현이 다소 어색할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7452117458410196</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 ICT융합공과대학입니다. 이 학부에서는 수학(미적분 또는 기하) 응시자의 수학 표준점수에 0.1을 곱한 점수가 추가로 반영됩니다.
+만약 더 자세한 정보가 필요하시다면, 해당 학과의 정확한 가산점 적용 방식이나 기타 관련 사항들을 확인하실 수 있습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것도 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 일치하지 않으며, 구체적인 반영 과목과 방법에 대한 정보가 추가되었지만, 원문에서 제공하는 정보와는 다소 차이가 있습니다. 원문에서는 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하라고 하였으나, 생성된 응답은 다른 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원문에서 언급된 100% 반영이라는 점과는 다르게, 구체적인 과목과 석차등급 평균으로 산출된다고 설명하고 있어 서로 상충하는 정보가 존재합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 수능 성적 반영에 대한 주제와 관련이 있지만, 원문에서 제공하는 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원문과의 관계가 명확히 드러나지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르게 수능 성적 반영 방법에 대한 정확한 정보를 제공하지 않으며, 원문에서 언급된 100% 반영이라는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 정보의 정확성과 일관성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공된 정보가 원문과 일치하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7343521030963125</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사** 교과 성적을 반영합니다.
+2. **반영방법**: 교과 성적은 석차등급 평균으로 산출됩니다.
+이 정보는 "기타사항 나군 학생부종합(조기취업형계약학과전형) 동점자 처리기준 교과 성적 산출방법" 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가적인 정보(레저스포츠학과와 태권도학과에서 실시됨)도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 학과 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기고사 날짜와 관련된 정보를 잘 다루고 있으며, 추가적인 학과 정보도 관련성이 높습니다.
+4. Fluency Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞으며, 추가된 정보도 적절합니다.
+9. Understandability Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7638255934615988</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집단위가 제외된다는 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서는 특정 학과가 제외된다고 명확히 언급하고 있지만, 생성된 응답은 그러한 정보를 확인할 수 없다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 특정 학과가 제외된다고 명시되어 있으나, 생성된 응답은 모든 모집단위가 포함되어 있다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않고, 관련 없는 정보(공식 홈페이지 링크)를 포함하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보의 흐름은 괜찮지만, 내용의 정확성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 원본의 정보와는 다른 방향으로 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5480386684531591</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형) 전형에서 특정 모집단위가 제외된다는 정보는 제공된 내용에서 확인할 수 없습니다. 현재까지의 정보로는 모든 모집단위가 포함되어 있는 것으로 보입니다.
+만약 추가적인 정보나 변경 사항이 있다면, 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8744842478218199</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 전형요소 반영비율에서 수능 비율이 100%로 설정되어 있으며, 수능 최저기준 항목에서도 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, "보육·가정상담학과"가 "아동학과"로 분리된 사실을 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보와 충돌하는 부분이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5156958617478562</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 분리되었습니다.
+이 정보는 제공된 데이터 중에서 확인하였습니다. 만약 더 자세한 내용이나 다른 학과에 대한 변경 사항을 알고 싶으시다면, 관련 웹사이트를 방문해 보시는 것을 추천드립니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다. 추가적인 일정 정보도 포함되어 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다. 모든 내용이 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 원서접수 마감일과 관련된 추가 정보를 제공합니다. 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다. 모든 정보가 사실적입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7746404475386112</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다. 
+원서접수 일정은 다음과 같습니다:
+- 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+자세한 일정은 [입학안내 홈페이지](http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보와 상반된 내용을 담고 있습니다. 실제로는 여러 전형에서 전형 요소의 변화가 명확히 언급되었으나, 생성된 응답에서는 변화가 없다고 잘못 진술하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형 요소의 변화가 없다고 주장하는 것은 원본의 내용과 상충합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 전형 요소에 대한 질문에 대한 답변을 시도하고 있으나, 잘못된 정보로 인해 관련성이 낮습니다. 원본 텍스트의 주요 내용과는 거리가 멉니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비논리적인 결론을 도출하고 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 사실과 전혀 일치하지 않으며, 전형 요소의 변화에 대한 잘못된 정보를 제공합니다. 따라서 정확성 점수는 최하입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 의미적으로 부적절한 부분이 있으며, 원본 텍스트의 맥락과 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 문장은 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6301264989871899</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 반영 비율이 변경된 전형은 없습니다. 모든 전형에서 수능 위주의 전형과 실기/실적 위주의 전형, 학생부교과 위주의 전형 등에서 수능 최저 기준 없음 및 전형요소 반영비율이 동일하게 유지되고 있습니다.
+만약 특정 전형의 세부 요소가 변경되었다면, 그 내용은 제공된 정보에서 확인되지 않았습니다. 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기 비중이 100%라고 주장하지만, 원본 텍스트에서는 실기 비중이 70%라고 명시되어 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 실기 비중에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 가군 실기/실적 전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 실기 비중에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 실기 비중에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 잘못된 사실에 기반하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6958655030604012</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 100%입니다. 
+특히, 가군 실기/실적(일반학생전형)에서는 다음과 같이 반영됩니다:
+- **레저스포츠학과, 태권도학과** : 수능 30%, 실기 70%
+- **전 모집단위 (레저스포츠학과, 태권도학과 제외)** : 수능 100%
+따라서, 일반적으로 동의대학교 가군 실기/실적 전형에서 실기는 매우 중요한 요소입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 내용을 정확하게 반영하고 있으며, 추가적인 설명도 포함되어 있지만 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 관련된 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.859686749558188</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과인 '라이프융합학부'는 세 가지 전공을 운영합니다. 이들 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세부 전공들은 미래의 사회 변화와 맞물려, 다양한 삶의 질 향상을 위한 학문적 기반을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. '태권도학과'는 원본에 포함되어 있지 않으며, 이는 일관성을 결여한 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽을 수 있지만, 중국어가 포함되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다. 문장 구조는 괜찮지만, 언어의 일관성이 부족합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 논리적인 흐름이 부족합니다. 한국어와 중국어가 섞여 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. '태권도학과'라는 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일치하지 않으며, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 이해할 수 있지만, 여러 언어가 혼합되어 있어 명확하게 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.667102664099822</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다.
+- 레저스포츠학과: 2024. 01. 16.(화)에 실기고사를 치릅니다.
+- 태권도학과:同样是关于东义大学2024年招生的加军，需要参加实测考试的科目有休闲体育学和跆拳道学。具体安排如下：
+- 休闲体育学：在2024. 01. 16.(星期二)进行实测考试。
+- 跆拳道学：也在2024. 01. 16.(星期二)进行实测考试。
+如果有其他问题或需要更多信息，请告诉我。</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 레저스포츠학과와 태권도학과를 제외한 모든 학과에 지원할 수 있다고 언급하고 있지만, 원본 텍스트에서는 이 두 학과가 실기/실적 위주 전형에 포함된다고 명시되어 있습니다. 따라서 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 특정 학과들이 지원 가능하다고 명시하고 있지만, 생성된 응답은 이와 상반되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 부정확하여 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 지원 가능한 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실관계와 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 사실관계의 오류로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6335886816238235</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적 (일반학생전형)"은 레저스포츠학과와 태권도학과를 제외한 모든 학과에 지원할 수 있습니다. 
+특히, 다음과 같은 학과들이 해당됩니다:
+- 한의예과
+- 디자인조형학과
+- 체육학과
+- 경기지도학과
+이 외에도 다른 학과에서도 실기/실적 위주 전형을 통해 지원할 수 있습니다. 하지만, 레저스포츠학과와 태권도학과는 해당되지 않습니다.
+자세한 내용은 동의대학교 입시 홈페이지를 참조하시거나, 직접 대학에 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "2024년도에 신설되는"이라는 표현은 다소 혼동을 줄 수 있으며, 현재 제공되는 전공에 대한 정보가 아닌 미래의 계획을 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 전공 목록을 제공하지만, "현재 제공되고 있는 정원 내 모집 인원 등의 정보는 해당되지 않습니다."라는 문장은 원본 텍스트의 내용과 일치하지 않으며, 다소 모호한 정보를 추가하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 라이프융합학부의 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "정원 내 모집 인원 등의 정보는 해당되지 않습니다." 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 설명이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 일관성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, 신설 학부에 대한 정보가 현재와 미래를 혼동하게 만들 수 있습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 일관성 문제와 혼동을 줄 수 있는 표현이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 미래의 계획을 언급함으로써 약간의 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 느껴질 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7703260550599129</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신설되는 '라이프융합학부'는 다음과 같은 전공을 제공할 예정입니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 정보는 2024년도에 신설되는 학부의 전공 분야를 기반으로 한 것입니다. 따라서 현재 제공되고 있는 정원 내 모집 인원 등의 정보는 해당되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 마이스터고에 대한 언급이 포함되어 있어, 농어촌학생전형에 대한 제한 사항이 명확히 설명되지 않았습니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 점에서 일관성을 보이지만, 농어촌학생전형에 대한 정보가 누락되어 있어 전체적으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 충분히 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 약간의 복잡성이 생겼습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 제한 사항이 명확히 언급되지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 의미가 잘 전달됩니다. 다만, 일부 세부사항이 누락되어 있어 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6832577056012551</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교(예를 들어 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고) 학생도 동의대학교 일반학생전형으로 지원 가능합니다. 
+특히, "고교유형별 지원자격" 항목을 보면, 특수목적고등학교 학생은 가군(수능일반학생전형), 나군(실기/실적일반학생전형) 및 다군(수능일반학생전형)에서 모두 지원이 가능합니다.
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형에 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 잘못된 정보를 제공합니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집한다고 명시하고 있으며, 모집 인원도 32명으로 정확히 언급되어 있습니다. 그러나 생성된 응답에서는 디자인조형학과가 75명을 모집한다고 잘못된 정보를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 제공된 정보가 원문과 관련이 없고 잘못된 내용을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 매끄럽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 잘못된 학과와 모집 인원에 대한 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락과는 맞지 않는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6149908253123767</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보니, 디자인조형학과(시각디자인, 산업디자인, 공예디자인)가 정원 내 모집 인원 75명으로 가장 많은 인원을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 이는 원문과 정반대의 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있어 일관성이 없습니다. 원문에서는 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 입학규정에 대한 언급이 있지만, 원문에서 질문한 내용과는 관련이 적습니다. 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원문에서의 지원 불가라는 내용을 무시하고 지원 가능하다고 주장하고 있어 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.587215804665986</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>동의대학교에서 특수목적고등학교 학생인 경우, '농어촌학생전형'으로 지원이 가능합니다. 하지만 구체적인 자격 요건은 동의대학교의 입학규정을 확인하시기 바랍니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하여 더 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 합격자 평균 성적 정보가 제공되지 않는다는 점을 잘 전달하고 있습니다. 그러나 "입학사정관이나 대학 홈페이지를 통해 확인하실 수 있습니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 원본 텍스트에서 언급된 "문의하시기 바랍니다"라는 표현이 "확인하실 수 있습니다"로 바뀌어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격자 평균 성적에 대한 정보가 없다는 점을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "해당 정보는 입학사정관이나 대학 홈페이지를 통해 확인하실 수 있습니다" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구조와 약간의 차이가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 추가된 정보가 원본에 명시되어 있지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원본 텍스트와 잘 연결되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 추가된 정보가 원본에 없기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8413692155606528</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부에 대한 합격자 평균 성적 정보가 제공된 문서 내에서 직접 확인할 수 없습니다. 해당 정보는 입학사정관이나 대학 홈페이지를 통해 확인하실 수 있습니다. 필요하시다면 관련 웹사이트를 방문해보시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보를 언급하고 있지만, 원본 텍스트는 소프트웨어공학부에 대한 정보를 다루고 있습니다. 또한, 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 다른 정보를 제공할 수 있다고 언급하여 혼란을 초래합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 소프트웨어융합학과에 대한 언급이 포함되어 있어 일관성이 부족합니다. 원본 텍스트는 소프트웨어공학부에 대한 정보가 없다고 명확히 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 소프트웨어융합학과에 대한 언급은 원본 텍스트의 핵심 질문과는 관련이 없습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못합니다. 소프트웨어융합학과에 대한 언급이 원본 텍스트와의 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보는 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제와 관련이 없는 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.575931330946261</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 정보가 제공된 데이터에는 포함되어 있지 않습니다. 다른 단과대학이나 모집단위의 정보만이 주어져 있습니다. 소프트웨어공학부에 대한 자세한 정보를 원하신다면, 해당 학과의 모집인원, 지원 인원, 경쟁률 등 추가적인 정보도 함께 제공해 드리겠습니다. 필요한 정보가 있다면 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 같은 추가적인 세부사항이 포함되어 있어 원본 텍스트와는 다소 차이가 있습니다. 원본 텍스트에는 등록 일정이 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 내용이 포함되어 있어 일관성이 떨어집니다. 특히, 최초 합격자 등록 일정이 원본에 없는데도 불구하고 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 세부사항이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 추가되어 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 원본 텍스트와의 차이로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8085708217699459</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **3차 이후 충원 합격자 발표 및 등록**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정이 2024년 2월 15일로 잘못 기재되어 있으며, 이는 원본 텍스트의 정보와 상충합니다. 원본 텍스트에서는 면접고사 일정이 2024년 1월 20일로 명시되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 정보가 서로 상충합니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 정보인 면접 일정과는 관련이 없습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다. 원본 텍스트의 사실과 완전히 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다. 그러나 면접에 대한 일반적인 정보는 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 문장이 명확하게 구성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5493167658057787</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 면접이 예정되어 있습니다. 이 날짜는 학교 지정 시간 내에서 개별면접을 받으실 수 있는 시점입니다. 자세한 일정은 "나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법" 항목을 참조해주세요. 
+참고로, 면접 시간은 1인당 10분 이내이며, 면접위원 2~3인이 수험생 1명을 대상으로 개별적 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘 반영하고 있으며, 수능 최저 기준이 없음을 확인할 수 있는 정보를 제공하고 있습니다. 그러나 "정확한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문장은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 한의예과의 최저학력 기준이 없다는 점을 지속적으로 강조하고 있습니다. 다만, 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 연결되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 최저 기준이 없다는 점을 정확하게 전달하고 있습니다. 그러나 "정확한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 부분은 다소 애매할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6097925686116721</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 직접적으로 언급되어 있지 않습니다. 
+한의예과와 관련된 전형요소 반영비율에서 볼 때, 수능최저기준이 없음을 확인할 수 있습니다:
+```json
+{
+    "전형 유형":  "수능 위주",
+    "전형명":     "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))",
+    "모집 인원":  "240",
+    "사정 단계":  "일괄 합산",
+    "전형요소 반영비율(%)": {
+        "학생부 교과": 0,
+        "출결": 0,
+        "서류": 0,
+        "면접": 0,
+        "실기": 0,
+        "수능": 100
+    },
+    "수능최저기준": "수능최저기준 없음"
+}
+```
+따라서, 한의예과는 수능 최저 기준이 없으며, 정확한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다. 더 자세한 내용을 알고 싶다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 공식 웹사이트에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에 수능 최저학력 기준이 없다는 사실과 상반되는 내용을 포함하고 있습니다. 응답에서는 각 학과별로 수능 최저학력 기준이 다르게 설정되어 있다고 주장하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 수능 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 수능 최저학력 기준이 없다는 간단한 사실을 전달하고 있지만, 생성된 응답은 불필요한 세부사항을 추가하여 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점수는 상대적으로 높은 편입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성을 고려할 때 이 점수는 상대적으로 높은 편입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5519454263392604</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집에서 수능 최저학력 기준은 각 학과별로 다르게 설정되어 있습니다. 구체적인 수능 최저학력 기준을 확인하려면 해당 단과대학의 홈페이지를 방문하거나, 입학처에 문의하시는 것이 가장 정확한 방법입니다.
+특정 전형이나 모집단위의 수능 최저학력 기준을 위에서 제공된 정보로 추론해보자면:
+- **나군 (일반학생전형)**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수를 합산한 점수 또는 4개 영역의 등급을 기준으로 합니다. 
+- **다군 (일반학생전형)**: 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수로 결정됩니다.
+따라서, 정확한 최저학력 기준을 확인하려면 해당 단과대학의 입학처 웹사이트나 전화 문의를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 1차 및 2차 충원 합격자 등록 일정이 추가되어 있으나, 이는 원본 텍스트에 명시되어 있지 않은 정보입니다. 또한, "이후에는 개별 전화 통보를 통해 발표가 이루어집니다."라는 문구도 원본에 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 특히, 등록 일정과 개별 전화 통보에 대한 언급은 원본과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 추가된 등록 일정은 원본의 주요 내용과는 관련이 적습니다. 그러나 전체적으로 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 나열하고 있으나, 추가된 정보가 원본과의 연결성을 약화시켜 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히 등록 일정과 개별 통보에 대한 언급은 원본에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 추가된 정보가 원본의 의미와 맥락을 왜곡할 수 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 추가된 정보로 인해 혼란을 줄 수 있습니다. 그러나 기본적인 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9178628371067936</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+- **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00~16:00
+이후에는 개별 전화 통보를 통해 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않으며, 원본 텍스트에 명시된 구체적인 발표 일정과는 전혀 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 날짜를 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지므로 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 무시하고 있으며, 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4339097041277245</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표 일정은 대학마다 다를 수 있으며, 일반적으로 합격자 발표와 같은 날 또는 그 다음날에 이루어집니다.
+추가합격자 발표일을 확인하려면 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시모집 등록자의 결원에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 결원에 대한 명확한 언급이 있으며 추가 합격자를 선발한다고 명시하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 부족으로 인해 약간의 흐름이 끊기는 느낌이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다. 따라서 의미 적합성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.432691372364199</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>附加招生吗？根据提供的信息，没有明确提到是否有额外的招生计划。如果您想了解具体的招生情况，请访问以下网站以获取最新信息：https://ipsi.deu.ac.kr/main.do。</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집인원, 지원자격, 전형요소 반영 비율 등에서 원본 텍스트와 일치하지 않으며, 특히 모집인원이 7명으로 잘못 기재되어 있습니다. 또한, 지원자격에 대한 설명이 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 지원자격과 모집인원에 대한 정보가 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 세부사항과는 다소 차이가 있습니다. 그러나 주제는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 여러 사실에서 부정확하며, 특히 모집인원과 지원자격에 대한 정보가 잘못되었습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 평생학습자전형에 대한 설명이 포함되어 있으나, 세부사항에서 원본과의 차이가 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 그러나 정보의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6904292993290562</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 나군에서 지원할 수 있는 전형 중 하나로, 재직자 및 성인 학습자를 대상으로 합니다. 이 전형의 주요 내용을 요약하면 다음과 같습니다:
+1. **모집인원**: 7명입니다.
+2. **지원자격**:
+   - 산업체 적용 범위: 국가·지방자치단체, 공공단체(소속 직원의 경우), 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+3. **전형요소 반영비율**: 서류 70%, 면접 30%입니다.
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서, 검정고시 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 추가로 궁금한 사항이 있으시다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 모든 평가 기준에서 낮은 점수를 받아, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 주제가 다르기 때문에 전체적으로는 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6661807711857832</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 핵심 정보를 간과하고 있습니다. 그러나 실기고사가 일반적으로 학교의 시설에서 이루어진다는 점은 사실입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 정보와는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 질문에 대한 직접적인 답변이 부족합니다. 그러나 실기고사에 대한 일반적인 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보는 정확하지만, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다. 따라서 정확성 점수는 중간 정도입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 수행되었지만 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 실기고사에 대한 일반적인 정보를 제공합니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3461542032404864</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사와 관련된 구체적인 장소에 대한 언급은 없습니다. 실기고사는 일반적으로 해당 학교의 시설에서 이루어지며, 특정 장소로 이동해야 하는 것은 아닙니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 정보만을 언급하고 있습니다. 원본 텍스트의 핵심 정보를 누락하고 있으며, 링크를 제공하는 것도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 내용이 없다고 언급하고 있습니다. 이는 원본 텍스트의 내용을 부정하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3802739874265243</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과와 관련된 실기고사에 대한 구체적인 내용이 없습니다. 체육학과의 실기고사를 위해 필요한 정보는 일반적으로 해당 학과의 홈페이지 또는 입학처 웹사이트에서 확인할 수 있습니다. 만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요. 그곳에서 더 자세한 내용을 찾으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 3차 이후에만 개별 전화 통보가 이루어진다고 명시된 원문과 상충합니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명확히 언급하고 있으며, 생성된 응답은 이를 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 3차 이후에 전화 통보를 받을 수 있다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 전화 통보에 대한 잘못된 해석이 포함되어 있어 완전한 관련성을 가지지 않습니다. 그러나 추가 정보 제공에 대한 언급은 유용합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않습니다. 전화 통보에 대한 잘못된 주장은 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문의 의미와 다소 일치하지 않지만, 추가 정보 제공은 적절합니다. 그러나 전화 통보에 대한 잘못된 해석이 의미의 적절성을 저해합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6726578088928881</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 3차 이후의 경우 개별 전화 통보를 받으실 수 있습니다. 하지만 이는 선택적인 부분이며, 합격자는 홈페이지에서 개별적으로 조회하실 수 있습니다.
+만약 추가로 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해 보시거나 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 2023학년도 수시모집 결과에 대한 정보가 없다는 점을 잘 반영하고 있습니다. 그러나 "특별한 내용이 없다"는 표현은 원문에서 명시된 정보의 부재를 다소 모호하게 전달하고 있습니다. 따라서 약간의 부정확성이 있지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 전달하고 있습니다. 원문에서 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있으며, 추가적인 정보 제공 방법을 제시하고 있습니다. 다만, "특별한 내용이 없다"는 표현이 원문과의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 수시모집 결과에 대한 질문에 적절하게 답변하고 있습니다. 추가적인 정보 제공 방법도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "특별한 내용이 없다"는 표현이 다소 모호하게 느껴질 수 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 수시모집 결과에 대한 정보가 없다는 점을 정확하게 반영하고 있습니다. 그러나 "특별한 내용이 없다"는 표현이 다소 부정확하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 약간의 어색함과 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 "특별한 내용이 없다"는 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7826094624042744</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 경찰행정학과에 대한 특별한 내용이 없습니다. 경찰행정학과의 2023학년도 수시모집 결과에 대해 자세히 알고 싶으신다면, 해당 대학의 입학처 웹사이트를 방문하거나 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가로, 일반적으로 수시모집 결과는 합격자 명단과 모집인원, 지원자 수 등을 포함하여 발표됩니다. 따라서, 해당 대학의 입학처 웹사이트에서 최신 정보를 확인해보시기 바랍니다. 
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 직접 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 정시모집에 지원할 수 있다고 주장하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련성이 낮습니다. 원문에서의 핵심 주제는 수능 응시 여부에 대한 것이며, 생성된 응답은 이를 잘못 해석하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하고 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문에서의 주제와는 다른 방향으로 전개되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 내용을 담고 있습니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5815273638200305</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시모집에서 수능을 응시하지 않아도 지원이 가능한 전형들이 있습니다. 예를 들어, "학생부교과", "실기/실적" 위주의 전형 등이 있습니다.
+특히 다음과 같은 전형들은 수능 응시 여부와 관계없이 지원 가능합니다:
+1. **학생부종합** (가군, 나군)
+2. **실기/실적** (일반학생전형, 경기실적우수자전형)
+이러한 전형들은 학생부 성적, 실기 성적, 서류 등 다양한 요소를 종합적으로 평가하여 지원자를 선발합니다.
+따라서 수능을 응시하지 않더라도 위와 같은 전형들을 통해 정시모집에 지원할 수 있습니다. 자세한 내용은 해당 학교의 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do"를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 사실을 부정하고 있습니다. 이는 원문과 상충되는 정보로, 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 10년이 지났다면 지원이 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 제공하는 정보와는 상반된 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받고 있습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 전달하고자 하는 의미와 크게 다르며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5242647572354114</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에 대한 내용이 없습니다. 정시 모집의 경우 일반적으로 고등학교 졸업 후 2년 이내에 지원해야 하는데, 10년이 지났다면 정시 지원은 불가능할 것으로 보입니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 정시 모집에 대한 공지사항을 확인하거나, 직접 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7824516616958972</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감일은 18시까지입니다. 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출하며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **실기고사**: 
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00에 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군에서 홈페이지에서 개별 조회 가능합니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수)부터 13일 (화)까지 학교 지정은행에서 등록금을 납부해야 합니다. 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - **충원 합격자 발표 및 등록**: 
+     - 2024년 2월 14일 (수) 9:00부터 16:00까지 1차 충원 합격자를 발표하고, 같은 시간에 등록합니다.
+     - 2024년 2월 15일 (목) 9:00부터 16:00까지 2차 충원 합격자를 발표하고, 같은 시간에 등록합니다.
+   - **3차 이후 충원 합격자**: 2024년 2월 15일 (목) 19:00부터 20일 (화) 18시까지는 개별 전화 통보를 통해 발표되며, 등록은 개별 통보 시 안내에 따라 진행됩니다.
+이상과 같이 동의대학교 정시 모집일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지에서 확인하시기 바랍니다. 필요하신 경우 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 대부분 정확하게 반영하고 있지만, 일부 세부사항이 누락되거나 다르게 표현되었습니다. 예를 들어, 원서접수 마감 시간에 대한 구체적인 내용이 다소 모호하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일관성을 유지하려고 했으나, 일부 내용에서 차이가 있어 일관성이 떨어집니다. 특히, 서류 제출 마감 시간에 대한 설명이 원본과 다르게 표현되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부사항에서 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 몇 가지 세부사항에서 정확성이 떨어지는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 대부분의 경우 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8735566384314002</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감 시간은 각각의 모집단위별로 다릅니다. 
+   - 일반 학생전형: 18시까지
+   - 나군: 17시까지 도착
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출하며, 마감 시간은 각각의 모집단위별로 다릅니다.
+   - 일반 학생전형: 18시까지 도착
+   - 나군: 17시까지 도착
+4. **실기고사**: 
+   - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과): 2024년 1월 16일 (화)
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)
+6. **충원 합격자 발표 및 등록**: 
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 9시
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 9시부터 16시까지
+7. **3차 이후 충원 합격자 발표 및 등록**: 
+   - 3차 이후 충원 합격자 발표: 2024년 2월 15일 (목) 19시부터 20일 (화) 18시까지
+   - 3차 이후 충원 합격자 등록: 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집에 대한 일반적인 일정이며, 각 모집단위별로 세부적인 내용이 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다. 더 자세한 정보가 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 수능 미응시자는 지원이 불가능하다는 점이 핵심인데, 생성된 응답은 이를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성이 있지만, 원문과의 사실적 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 점을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.667462622597609</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자전형)**
+2. **학생부종합(조기취업형계약학과전형)**
+이 두 전형에서는 수능 점수가 요구되지 않아 수능 미응시자도 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 36명까지 충원 합격이 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 충원 합격에 대한 구체적인 정보를 제공하고 있으나, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 충원 합격에 대한 구체적인 정보를 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로 일부 오류가 있으며, 중국어와 한국어가 혼합되어 있어 읽기 어려운 부분이 있습니다. 따라서 유창성 점수가 낮습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 정보가 일관되지 않아서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 일부는 이해할 수 있지만, 혼합된 언어와 불명확한 표현으로 인해 전반적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5949530898602801</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 전년도에 전자공학과의 충원 합격이 이루어졌는지的具体信息如下：
+提供的信息中并没有关于去年电子工程学专业录取轮次的信息。请查看学校官网（https://ipsi. deu. ac. kr/main. do）以获取更详细的数据。</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않고 웹사이트를 방문하라는 제안으로 대체하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 전화번호를 무시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 상반되는 내용을 포함하고 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석되고 있으며, 전화번호를 제공하지 않는 것은 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6879024573488962</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해 보시는 것을 추천드립니다. 해당 웹사이트에서 입학처 연락처를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있습니다. 원본에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 자동으로 처리되지 않는다고 잘못 설명하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 연락이 두절되면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답에서는 다른 절차를 제시하고 있어 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 왜곡하여 설명하고 있습니다. 전화 통화가 되지 않을 경우의 절차에 대한 정보는 유용하지만, 원본의 핵심 메시지와는 다소 다릅니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원본 텍스트의 흐름과 논리적 연결이 부족합니다. 원본의 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있습니다. 원본의 내용과 상반되는 정보를 제공하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본의 의미와 다소 다르게 해석되고 있습니다. 원본의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본의 핵심 메시지를 왜곡하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6124181965169133</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 해당 합격자는 자동으로 처리되지 않습니다. 이 경우에는 일반적으로 다음과 같은 절차를 따릅니다:
+1. **다시 전화 시도**: 입학관리팀은 다시 전화를 시도하거나 다른 연락 방법을 사용하여 학생에게 연락합니다.
+2. **개인 방문**: 필요에 따라 합격자에게 직접 방문하여 통보하는 절차가 있습니다.
+3. **입학관리팀의 결정**: 여전히 연락이 되지 않는 경우, 입학관리팀은 해당 합격자를 자동으로 배제하거나 다른 조치를 취할 수 있습니다.
+따라서 전화 통화가 되지 않으면 즉시 입학관리팀에 문의하여 최종 처리 방법을 확인하는 것이 좋습니다. 이는 각 대학의 정책과 절차에 따라 다소 차이가 있을 수 있으므로, 구체적인 안내를 받기 위해서는 입학관리팀으로 직접 연락하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제출해야 할 서류의 주요 내용을 잘 반영하고 있으나, 일부 세부사항(예: 부모 사망 시 제출 서류, 이혼 시 제출 서류 등)이 누락되어 있어 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 특정 세부사항이 누락되어 있어 일관성이 떨어집니다. 예를 들어, 추가 정보와 주의사항이 포함되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 제출해야 할 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분의 사실을 정확하게 반영하고 있지만, 특정 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 중요한 세부사항이 빠져 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 누락된 정보로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7091787686532285</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 주요 서류들은 다음과 같습니다:
+1. **6년 과정**
+   - 지원자 본인의 가족관계증명서 (1부)
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+2. **12년 과정**
+   - 지원자 본인의 주민등록초본 (1부)
+   - 초등학교 학교생활기록부 (1부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+위 서류들은 기본적인 것으로, 특정 유형에 따라 추가로 요구되는 서류가 있을 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 확인하시거나, 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "6년 과정 서류를 추가로 제출할 수 있다"는 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, 추가된 정보(6년 과정 서류 제출 가능성)가 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 정보가 원본과 일치하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 내용을 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 추가 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8130446088828318</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이 외에 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 6년 과정 서류를 추가로 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 오히려 선발 여부에 대한 불확실성을 강조하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 명시된 기회균등 전형의 부재와 일치하지 않으며, 다른 전형에 대한 정보로 주제를 흐리고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 응답은 기회균등 전형에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 전형에 대한 정보로 주제를 전환하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 다소 일관성이 부족하며, 주제가 명확히 연결되지 않아 논리적 흐름이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 기회균등 전형이 존재하지 않는다는 사실을 부정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 원문과 다소 일치하지만, 기회균등 전형의 존재 여부에 대한 명확한 답변을 제공하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 주제가 명확히 전달되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6240038782666472</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 내용이 직접적으로 명시되어 있지 않습니다. 제공된 자료는 주로 경기실적우수자전형, 학생부종합전형 등에 대한 정보를 다루고 있습니다.
+정시 모집에서 저소득 기회균등 전형의 선발 여부는 일반적으로 각 대학이 정하는 입학전형 종류와 관련된 내용입니다. 따라서 정확한 답변을 위해서는 해당 대학의 공식 홈페이지나 입학처에 직접 문의하시는 것이 가장 좋습니다.
+더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 를 방문해보시거나, 해당 대학의 입학처 웹사이트에서 정시 모집 전형에 대한 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5 등급이 그대로 적용된다고 주장하고 있습니다. 이는 원문에서 명시된 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사가 적용되지 않는다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있지만, 원문에서 언급된 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다. 그러나 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문에서의 정보와 상충하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.603414738537657</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 그대로 2.5 등급으로 처리됩니다. 절사(절단점)은 적용되지 않습니다. 수능 최저등급에서 사탐 2 과목의 평균산출이란 표현은 두 과목의 등급을 평균한 값이 최저등급에 해당한다는 의미입니다.
+예를 들어, 두 과목의 등급이 각각 2.5와 3.0이라면 평균은 (2.5 + 3.0) / 2 = 2.75가 됩니다. 이 경우에도 2.75는 최저등급에 해당하므로 2.5로 처리됩니다.
+따라서, 2.5 등급이 나오더라도 그대로 2.5 등급으로 보시면 됩니다. 절사 적용은 하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표를 언급하고 있으며, 원본 텍스트와 상충하는 정보가 포함되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있지만, 4차 발표에 대한 잘못된 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 4차 발표에 대한 언급으로 인해 논리적 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 4차 발표를 언급하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8015210873127667</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 발표**: 2024년 2월 14일 (수) 오전 9시부터 진행됩니다.
+2. **1차 등록**: 같은 날 오전 9시부터 오후 4시까지 등록이 가능합니다.
+3. **2차 발표**: 2024년 2월 15일 (목) 오전 9시부터 진행됩니다.
+4. **2차 등록**: 이날 오전 9시부터 오후 4시까지 등록이 이루어집니다.
+마지막으로, 3차 이후의 합격자 발표는 개별 전화 통보를 통해 안내되며, 이 날짜는 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 성적 기준을 명확히 제시하지 않았다고 언급하고 있지만, 원본 텍스트에서는 수능 4개 영역 등급과 평균 점수에 대한 정보가 제공되고 있습니다. 따라서 일부 사실이 누락되었고, 이로 인해 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 특정 전형명이나 모집단위에 대한 정보가 부족하다고 언급하여 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 기준을 언급하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 구체적인 성적 기준에 대한 언급이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 정보의 부족과 일관성 문제로 인해 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있습니다. 다만, 원본 텍스트의 정보가 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4439355369498896</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "e비즈니스학과"에 대한 특정 전형명이나 모집단위, 그리고 그에 따른 수능 성적 기준 등이 명확히 주어지지 않았습니다. 따라서 e비즈니스학과의 정시 전형으로 추가 합격 가능 여부를 판단하기 어렵습니다.
+추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다. 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 공식 홈페이지에서 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급에 대한 정보가 부정확합니다. 원본 텍스트에서는 영어 등급 평균이 3.66, 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있지만, 생성된 응답에서는 국어국문학과의 평균 등급이 4.65라고 언급하며 비교하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, e비즈니스학과에 대한 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, e비즈니스학과에 대한 구체적인 데이터가 부족하여 일관성이 떨어집니다. 정시 등급 5.3이 높은 점수라는 점은 일치하지만, 평균 등급에 대한 비교는 원본 텍스트와 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 정시 등급 5.3에 대한 가능성을 논의하고 있습니다. 그러나 e비즈니스학과에 대한 구체적인 정보가 부족하여 완전한 관련성을 제공하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 e비즈니스학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, e비즈니스학과의 평균 등급에 대한 정보가 부정확하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 e비즈니스학과에 대한 구체적인 정보가 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7536417577128239</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 정보가 제공되지 않았습니다. 그러나 정시 등급 5.3은 상당히 높은 점수입니다. 이 점수는 경쟁률이 낮은 학과나 전형에서 최초합격 가능성은 있습니다.
+만약 e비즈니스학과의 경우, 평균 등급이 4.65인 국어국문학과와 비슷하거나 더 낮다면, 정시 등급 5.3은 충분히 경쟁력을 갖추고 있을 것입니다. 그러나 만약 e비즈니스학과의 평균 등급이 높다면, 경쟁률이 높아져 최초합격 가능성은 낮아질 수 있습니다.
+따라서 정확한 정보를 얻기 위해서는 동의대학교 웹사이트나 입학처에 직접 문의하는 것이 가장 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 지원자의 합격 가능성을 평가하기 위해 다른 학과의 평균 점수와 표준 편차를 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 관련이 없습니다. 원본 텍스트는 e비즈니스학과의 예비 합격 가능성이 낮다고 명시하고 있으며, 생성된 응답은 이를 무시하고 다른 학과의 데이터를 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일치하지 않으며, 예비 38번 지원자의 합격 가능성에 대한 정보가 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다른 학과의 데이터를 통해 합격 가능성이 높다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 e비즈니스학과의 예비 합격 가능성에 대한 질문에 직접적으로 답하지 않고, 다른 학과의 평균 점수와 표준 편차를 언급하고 있습니다. 이는 원본 텍스트와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 38번 지원자의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트와의 일관성, 관련성, 정확성이 부족합니다. 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 다른 학과의 데이터를 언급함으로써 주제를 벗어나고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다. 정보가 분산되어 있어 명확한 결론을 도출하기 힘듭니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.488487481640223</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 지원자의 경우, 정확한 합격 여부를 판단하기 위해서는 해당 전형의 평균 점수와 표준 편차 등을 고려해야 합니다. 위에서 제공된 "수능(일반학생전형) 최초합격자" 데이터를 보면:
+- **인문사회과학대학 국어국문학과**:
+  - 평균: 303.44
+  - 표준 편차: 10.34
+- **인문사회과학대학 중어중국학과**:
+  - 평균: 281.29
+  - 표준 편차: 11.43
+이정도 점수를 가진 지원자가 해당 학과의 평균 점수와 비교해보면, 인문사회과학대학 국어국문학과에서는 약간 높은 점수가 나왔지만, 표준 편차를 고려하면 안전한 범위에 속할 수 있습니다. 반면 중어중국학과에서는 평균보다 낮은 점수이므로, 이정도로는 충분히 합격 가능성이 높습니다.
+하지만, 정확한 예비합격 여부를 판단하기 위해서는 해당 전형의 최종 합격 기준을 확인해야 합니다. 따라서, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 해당 전형의 최종 합격 기준을 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.
+추가적으로, 지원자의 개인적인 경쟁률과 모집 인원 등을 고려하여 결정하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 "정시 모집인원이 많지 않은 편입니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 합격 가능성에 대한 조언을 추가로 제공하고 있습니다. 그러나 "정시 모집인원이 많지 않은 편입니다"라는 부분은 원본 텍스트와 일치하지 않으므로 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성을 높이기 위한 구체적인 조언을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 문장은 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 조언을 제공합니다. 그러나 일부 추가 정보는 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 제시된 정보가 잘 전달됩니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5729447696873838</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과는 일반적으로 높은 학업성적을 요구하며, 정시 모집인원이 많지 않은 편입니다.
+다만, 합격 가능성은 여러 요소에 따라 달라질 수 있으므로, 다음과 같은 절차를 따르시는 것을 추천드립니다:
+1. **추가 지원 가능 여부 확인**: 동의대학교 간호학과에서 추가 지원이 가능한지 확인하세요.
+2. **학생부 종합전형 준비**: 학생부 종합전형을 준비해보세요. 이 전형에서는 학생부 성적 외에도 인성, 활동 등 다양한 요소가 고려됩니다.
+3. **면접 준비**: 면접을 준비하는 것이 좋습니다.
+추가로, 동의대학교 간호학과의 정시 모집인원과 합격 기준 등을 확인하시고, 필요하다면 대학 입학처에 문의해보세요. 더 자세한 정보를 얻으실 수 있습니다.
+https://ipsi. deu. ac. kr/main. do 웹사이트에서 추가 정보를 얻을 수 있을 것입니다.
+이러한 절차를 통해 합격 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘못 해석하고 있습니다. 원본 텍스트는 정시 등급이 2.52일 경우 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 이와 반대로 현재 성적이 평균 점수보다 낮다고 주장하며 합격이 어려울 것이라고 잘못된 결론을 내리고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.52의 성적이 평균보다 높다고 하였으나, 생성된 응답은 이를 반박하며 성적이 낮다고 주장하고 있습니다. 이로 인해 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 결론을 내리고 있어 일부 관련성이 떨어집니다. 그러나 평균 점수와 관련된 정보는 여전히 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있으나, 결론이 잘못되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 잘못된 정보를 제공하고 있습니다. 특히, 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 결론으로 인해 의미 전달이 부정확합니다. 원본의 의도를 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 정보는 명확하게 전달되지만, 결론이 잘못되어 이해에 어려움을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6548493415409565</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원자들의 평균 점수와 표준 편차를 살펴보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+  - 평균: 353.48
+  - 표준 편차: 4.66
+- **영어 등급**:
+  - 평균: 2.34
+  - 표준 편차: 0.69
+- **수능 4개 영역 등급**: 
+  - 평균: 3.37
+  - 표준 편차: 0.29
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 481.70
+  - 표준 편차: 6.87
+당신의 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 2.52입니다. 이는 평균 점수인 353.48보다 훨씬 낮습니다. 따라서, 현재의 성적로 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 보입니다.
+만약 다른 전형을 고려하거나 추가적으로 수능 공부를 하여 점수를 높이는 것이 좋을 것 같습니다. 더 자세한 정보나 도움이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보시거나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하고 있으며, 3.7의 GPA로 합격하기 어려울 것이라는 주장을 하고 있습니다. 그러나 "평균 등급보다 낮은 성적"이라는 부분에서 약간의 오해가 있을 수 있습니다. 3.7은 평균보다 낮지 않지만, 간호학과의 높은 경쟁률을 고려할 때 합격 가능성이 낮다는 점은 적절하게 언급되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 높은 성적 요구에 대한 내용을 잘 반영하고 있습니다. 다만, "평균 등급보다 낮은 성적"이라는 표현이 다소 모호하게 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 성적 요구와 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "확실한 답변을 드리기 위해서는" 부분에서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 성적 기준에 대한 정보를 정확하게 반영하고 있으며, 3.7의 GPA에 대한 해석도 적절합니다. 그러나 평균 등급에 대한 언급이 다소 혼동을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 약간의 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6806566784548629</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 경우 보통 높은 성적을 요구합니다. 하지만 확실한 답변을 드리기 위해서는 해당 대학의 간호학과 정시 모집단위의 최저 성적 기준을 확인해야 합니다.
+대부분의 대학에서 간호학과의 정시 모집에서는 4.0 이상의 GPA를 요구하는 경우가 많습니다. 따라서 3.7의 GPA로는 합격하기 어려울 것으로 예상됩니다.
+만약 확실한 정보를 원하신다면, 해당 대학의 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do" 링크에서 최신 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적"이라는 부분과 모순됩니다. 2.58은 평균보다 낮은 점수이므로 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 일관성이 떨어집니다. 특히, 2.58이라는 점수가 평균보다 높다고 언급한 부분이 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으며, 간호학과의 경쟁률과 평균 점수에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2.58이라는 점수에 대한 해석이 잘못되어 있습니다. 이는 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트와의 일관성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6775805012141902</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수를 가지고 동의대학교 간호학과에 정시 전형으로 합격할 확률을 판단하기 위해서는 해당 학과의 경쟁률과 평균 점수 등을 고려해야 합니다.
+간호학과의 관련 정보를 확인해보겠습니다:
+- **2024학년도 모집단위**: 간호학과
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+- **충원 합격 (후보순위)**: 37명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - **평균**: 353.48
+간호학과의 평균 점수가 353.48이고, 경쟁률이 6.59라는 것을 보면, 2.58이라는 점수는 상당히 낮은 수치입니다.
+따라서, 2.58이라는 점수로 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 예상됩니다. 하지만 최종 합격 여부는 실제 지원자의 성적과 경쟁률 등 여러 요인에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교의 공식 입학 정보 페이지를 확인하거나, 대학 관계자에게 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과의 최종등록자 데이터와 관련된 구체적인 정보를 제공하지 않고 있으며, 예비 7번의 합격 가능성에 대한 명확한 언급이 없습니다. 따라서 사실적 정확성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 누락되어 있습니다. 원본 텍스트의 주장을 반박하는 내용이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과에 대한 추가 정보를 요청하는 내용이 포함되어 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성이 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 다소 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적 적절성이 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 문장이 길어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.588991860480346</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집단위와 인원 등이 포함되어 있지 않습니다. 게임공학과의 모집인원, 지원인원, 경쟁률 등을 확인하려면 추가적인 정보가 필요합니다.
+만약 게임공학과에 대한 자세한 정보를 원하신다면, 해당 대학의 공식 웹사이트나 입학처와 연락을 취해 보시는 것이 좋습니다. 특히, 현재 모집단위와 인원 등이 변경되었거나 추가된 경우에는 공식 웹사이트에서 최신 정보를 확인하시기 바랍니다.
+https://ipsi.deu.ac.kr/main.do 링크를 통해 입학처의 공식 페이지를 방문해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 기준에 대한 정보를 제공하고 있으며, 게임공학과의 평균 등급과 관련된 내용을 언급하고 있습니다. 그러나 특정 전형의 성적 기준이 명시되지 않았다는 점에서 일부 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가 합격 가능성에 대한 언급도 일관성을 유지하고 있습니다. 다만, 일부 세부 사항에서 원본과의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 게임공학과에 지원하기 위한 수능 성적 기준에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 성적 기준에 대한 설명이 정확합니다. 그러나 특정 전형의 성적 기준에 대한 정보가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 문장에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6935497109454418</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수를 가지고 동의대학교 게임공학과에 지원하려면, 해당 전형의 수능 성적 기준을 확인해야 합니다. 현재 제공된 정보로는 특정 전형의 모집단위별 수능 성적 기준이 명시되어 있지 않으므로 정확한 답변을 드리기 어렵습니다.
+다만, 일반적으로 게임공학과와 같은 공과대학 계열에서는 수능 4개 영역 중 국어, 수학, 영어, 탐구의 점수가 중요하게 작용합니다. 또한, 가산점이 적용되는 경우도 있으므로, 지원 전형의 특성에 맞게 성적을 평가받아야 합니다.
+특정 전형의 모집인원과 지원 인원, 경쟁률 등을 고려하여 추가 합격 가능성은 판단하기 어렵습니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 해당 전형의 공고를 확인하시거나, 직접 입학처에 문의하시는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 최신 전형요건을 정확히 알 수 없다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 3.75의 성적이 평균보다 높아 합격 가능성이 높다고 명시되어 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본에서는 3.75의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그에 대한 확신을 주지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 정보를 제공하고 있으며, 원본 텍스트와 관련된 내용을 다루고 있습니다. 그러나 원본의 핵심적인 성적 정보에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본의 핵심 정보를 충분히 반영하지 못해 약간의 일관성 결여가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 3.75의 성적이 합격 가능성이 높다는 정보를 명확히 전달하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있습니다. 그러나 원본의 핵심 정보에 대한 언급이 부족하여 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본의 핵심 정보를 충분히 반영하지 못해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5771060839776792</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 최신 전형요건을 정확히 알 수 없습니다. 경영정보학과의 정시 모집에 대한 최종적인 지원 자격 요건은 동의대학교의 공식 웹사이트를 참조해야 합니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+위 링크에서 2024학년도 정시 모집에 대한 최신 정보와 지원 자격 요건을 확인할 수 있습니다. 특히, 성적 기준과 같은 세부적인 지원 자격 요건은 해당 페이지에서 가장 정확한 정보를 얻을 수 있습니다.
+만약 웹사이트에서 필요한 정보를 찾지 못하면, 동의대학교 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 현재 정시 등급에 대한 정보는 무시하고 있습니다. 따라서 일부 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 4.2의 정시 등급이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 4.2의 정시 등급이 평균 등급보다 낮다는 사실을 간과하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 수행되었지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 특정 사실을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 지침을 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5716548453850063</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 단과대학 및 모집단위의 모집인원, 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 제공된 데이터에는 경영정보학과에 대한 특정 정보가 없습니다. 따라서 다음과 같은 절차를 따르세요:
+1. **동의대학교 홈페이지**를 방문하여 해당 단과대학 및 모집단위의 최신 합격 기준을 확인하세요.
+2. **경쟁률**이 현재 4.2인 경우, 지원 인원이 많다면 경쟁률이 높아서 최초등록자로도 합격하기 어려울 수 있습니다.
+추가적으로, 동의대학교 홈페이지에서 "수능(일반학생전형) 최초합격자" 섹션을 확인하여 해당 단과대학 및 모집단위의 평균 점수와 경쟁률 등을 참조하시면 도움이 될 것입니다. 
+만약 더 자세한 정보가 필요하다면, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 추가적인 정보가 필요하다는 점을 언급하고 있습니다. 그러나, 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 사실을 다루지 않고 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 합격 가능성이 낮다는 원본의 주장을 명확히 지지하지 않고 있습니다. 따라서 일관성이 다소 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 합격 가능성에 대한 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 원본 텍스트의 핵심 주제를 완전히 반영하지 못한 점에서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 합격 가능성에 대한 명확한 결론을 제시하지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 명확한 진술이 부족하여 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6737723204770398</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적 5.33로 합격할 수 있는지 확정적으로 답변하기 어렵습니다. 동의대학교 경영정보학과의 모집요강, 합격기준 등 추가적인 정보가 필요합니다.
+만약 동의대학교의 경우 특정 전형에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 또는 영어 등급 등의 기준을 설정하고 있다면, 해당 기준에 맞춰 평균 성적 5.33이 충족되는지 확인해야 합니다.
+추가 정보를 원하시거나 더 자세한 상담이 필요하다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 관련된 정보를 제공하지만, 인문사회과학대학 국어국문학과의 성적 평균과 표준 편차를 언급하며 관련 없는 정보를 포함하고 있습니다. 또한, 영어 등급 평균이 3.88로 잘못 기재되어 있으며, 이는 원본 텍스트의 3.82와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 인문사회과학대학의 성적 평균과 표준 편차를 언급하면서 바이오응용공학부와 관련된 정보가 아닌 다른 학과의 데이터를 사용하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 최초합격 가능성에 대한 질문에 답변하고 있지만, 불필요한 정보(인문사회과학대학의 성적 평균 등)를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 각 요소 간의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 특히, 인문사회과학대학의 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(영어 등급 평균 등)를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있지만, 관련 없는 정보를 포함하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 불필요한 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7255232975209808</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>3.33 정도의 성적이 바이오응용공학부(2024년도)의 최초합격자에 해당하는지 확인하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **성적 평균과 표준 편차**: 주어진 데이터에서, 인문사회과학대학 국어국문학과의 성적 평균은 4.65로, 표준 편차는 0.21입니다. 이는 매우 높은 수치이며, 대부분의 지원자들이 이보다 낮은 점수를 받았음을 의미합니다.
+2. **성적 등급**: 영어 등급 평균이 3.88이고, 표준 편차가 0.31입니다. 이는 중간에서 약간 높은 수치로, 대부분의 지원자들이 이보다 낮은 점수를 받았음을 의미합니다.
+3. **성적 변환 점수 합**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균이 303.44이고, 표준 편차는 10.34입니다. 이 역시 높은 수치로, 대부분의 지원자들이 이보다 낮은 점수를 받았음을 의미합니다.
+따라서, 성적 3.33 정도는 상대적으로 좋은 성적이므로 바이오응용공학부 최초등록자로 가능할 것으로 보입니다. 하지만 정확한 확률을 알기 위해서는 해당 학과의 경쟁률과 지원 인원 등을 고려해야 합니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트를 방문하여 최신 데이터와 정보를 확인하시거나, 직접 연락하여 상담 받으시는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 요건에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 2.8, 수능 4개 영역 3.82)과 비교할 때, 4.4 등급이 낮다는 점을 명확히 언급하지 않고 있습니다. 또한, 과학 영역의 중요성을 강조하지만, 원본 텍스트의 구체적인 수치와 비교하여 합격 가능성을 명확히 설명하지 않아 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 요건에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과의 일관성이 부족합니다. 원본 텍스트에서 제시된 4.4 등급이 평균보다 낮다는 점을 명확히 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 요건과 관련된 정보를 제공하고 있으며, 질문자의 상황에 대한 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보(평균 등급)에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 방사선학과의 입학 요건에 대한 정보를 체계적으로 전달하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 요건에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교하여 정확성이 떨어집니다. 4.4 등급이 평균보다 낮다는 점을 명확히 언급하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성, 일관성, 정확성에서 부족한 점이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 요건에 대한 의미를 적절하게 전달하고 있으며, 질문자의 상황에 맞는 조언을 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와의 연결이 부족하여 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 이해 가능성이 다소 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.690460200777595</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급에 해당하는 점수는 대략 123점 정도입니다. 방사선학과의 경우, 입학을 위한 주요 요소 중 하나가 과학 영역이므로, 국어, 수학, 영어 등 외에도 과학 영역에서 높은 성적을 요구받는 학과일 가능성이 있습니다.
+현재 제시된 정보만으로는 정확한 판단이 어렵습니다. 방사선학과의 입학요건이나 과목별 점수 기준 등을 확인하시기 바랍니다. 만약 구체적인 입학요건이 필요하다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하시는 것이 좋습니다.
+특히, 방사선학과는 과학 영역에서 높은 점수를 요구하는 경우가 많으므로, 과학 영역의 성적을 확인하시고, 해당 학과의 입학요건을 다시 한 번 검토해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 또한, "2.66의 경쟁률"이라는 표현은 원본 텍스트의 정시 등급과 혼동될 수 있습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않습니다. 원본 텍스트는 정시 등급에 대한 정보를 제공하는 반면, 생성된 응답은 경쟁률에 초점을 맞추고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대해 경쟁률을 언급하며 관련된 정보를 제공합니다. 그러나 원본 텍스트의 주요 내용인 정시 등급에 대한 정보는 다루지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 경쟁률에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 정시 등급과 관련된 정보는 누락되어 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 적절하게 반응하고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5013987906264474</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률을 방사선학과와 비교해보겠습니다.
+방사선학과의 지원 인원은 36명이고, 모집 인원은 5명입니다. 따라서 방사선학과의 경쟁률은 다음과 같습니다:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{모집 인원}} = \frac{36}{5} = 7.20 \]
+당신이 제시한 2.66의 경쟁률은 방사선학과의 실제 경쟁률인 7.20보다 낮습니다. 따라서 2.66의 경쟁률로는 방사선학과에 지원하는 것이 어렵지 않을 것으로 보입니다.
+하지만, 다른 학과에서도 고려해볼 필요가 있습니다. 예를 들어, 간호학과의 경우 경쟁률이 6.59이고, 호텔·컨벤션경영학과의 경우 경쟁률이 4.83입니다. 따라서 방사선학과보다는 간호학과나 호텔·컨벤션경영학과에 더 유리한 경쟁률을 보여주고 있습니다.
+결론적으로, 2.66의 경쟁률로 방사선학과를 지원하는 것은 위험할 수 있지만, 다른 학과들에 비해 상대적으로 낮은 경쟁률이므로, 방사선학과에도 충분히 도전해볼 만한 가치가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 성적이 평균보다 높은 점을 언급하고 있습니다. 그러나 농어촌 전형에 대한 구체적인 정보가 부족하여 일부 사실이 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 농어촌 전형에 대한 추가적인 요소를 강조하면서 원본의 내용을 다소 변형하였습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 경찰행정학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 흐름이 약간 어색해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 농어촌 전형에 대한 구체적인 정보가 부족하여 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 농어촌 전형에 대한 정보가 부족하여 일부 의미가 약해질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5608653783587738</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 어느 정도일까요?
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 농어촌 전형의 경우 일반적으로 학생부와 수능 성적을 종합적으로 평가합니다. 특히 농어촌 전형에서는 농어촌 배경이나 관련 활동 경험이 중요하게 고려됩니다.
+3.66이라는 성적은 중등 정도의 성적입니다. 하지만, 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **학생부 평가**: 농어촌 배경을 가진 학생이라면, 이 부분에서 긍정적인 점수를 받을 수 있을 것입니다.
+2. **수능 성적**: 3.66의 성적만으로는 수능 성적이 어느 정도인지 알 수 없습니다. 만약 수능 성적이 높다면, 합격 가능성은 더 높아질 것입니다.
+3. **활동 경력**: 농어촌 배경을 가진 활동이나 관련 경험을 가지고 있다면 이 부분에서 긍정적인 점수를 받을 수 있습니다.
+따라서, 정확한 판단을 위해서는:
+- **학생부 평가**와 **수능 성적**을 확인해야 합니다.
+- **활동 경력**과 **농어촌 배경**에 대한 자세한 정보가 필요합니다.
+만약 더 많은 정보를 원하신다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.
+이러한 요소들을 종합적으로 고려하여 합격 가능성 판단을 하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자에 대한 일반적인 정보와 성적, 경쟁률, 전형별 평균 점수 등을 언급하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 예비 25번의 합격 가능성에 대한 구체적인 정보가 부족하여 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 예비 25번의 합격 가능성에 대한 정보와 일치하지 않으며, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자와 관련된 정보와 조언을 제공하고 있지만, 원문에서 요구하는 특정 학과에 대한 정보가 부족하여 완전한 관련성은 없다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있지만, 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일반적인 정보와 조언을 제공하지만, 원문에서 제공된 구체적인 사실이나 데이터가 누락되어 있어 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결성이 부족하고 구체적인 정보가 결여되어 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원문에서 요구하는 특정 정보가 부족하여 완전한 적절성은 없다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5258134383784694</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁률이 매우 높은 상태에서 선발되는 경우가 많습니다. 하지만 모든 것이 불확실하므로, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **성적**: 수능 성적이 중요합니다. 평균 점수와 표준 편차를 참조하여 자신의 성적이 어느 정도인지 확인하세요.
+2. **경쟁률**: 지원 인원과 모집 인원을 비교하여 경쟁률이 얼마나 높은지 파악해보세요.
+3. **전형별 평균 점수와 표준 편차**: 각 전형별로 평균 점수와 표준 편차를 확인하고, 자신의 성적이 어느 정도인지 판단하세요.
+예를 들어, 인문사회과학대학 국어국문학과의 경우:
+- 평균 점수: 303.44
+- 표준 편차: 10.34
+이렇게 평균 점수가 높고 표준 편차가 크다면, 경쟁률이 매우 높을 가능성이 있습니다.
+따라서, 자신의 성적과 전형별 평균 점수를 비교하여 붙을 확률을 판단해보시는 것이 좋습니다. 만약 확률이 낮다고 판단된다면, 다른 전형이나 대학을 고려해볼 수도 있습니다. 
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조하거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 부분이 있습니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 지원 정보를 제공하고 있습니다. 이는 사실과 일치하지 않으며, 여러 가지 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 법경찰행정학부가 존재하지 않음을 강조하고 있지만, 생성된 응답은 해당 학부에 대한 지원 정보를 제공하고 있습니다. 이로 인해 두 텍스트 간에 모순이 발생합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 법경찰행정학부에 대한 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 기준에 대한 정보는 포함되어 있지만, 잘못된 학부에 대한 정보로 인해 전체적인 관련성이 낮아집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 불필요한 반복이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해지면서 논리적 흐름이 방해받고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 법경찰행정학부에 대한 정보는 명백히 잘못된 것입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 법경찰행정학부에 대한 언급은 원본 텍스트의 주제와 맞지 않으며, 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6667075471351854</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 참고하시면 좋을 것 같습니다.
+1. **나군 전형**:
+   - 나군은 학생부교과와 수능 성적을 반영하는 전형입니다.
+   - 법학과의 경우, 나군에서는 일반학생전형이 주로 시행됩니다.
+   - 나군에서의 정원내 모집인원은 40명으로, 이는 경쟁률이 높아 보입니다.
+2. **나군 전형의 성적 기준**:
+   - 나군에서는 학생부교과와 수능 성적이 반영되며, 각 영역별로 평균 점수가 필요합니다.
+   - 예를 들어, 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목) 등이 반영됩니다.
+   - 각 영역별로 25%씩 반영되므로, 평균적으로는 국어, 수학, 영어 등의 성적이 높아야 합니다.
+3. **정원 내 모집인원과 경쟁률**:
+   - 정원 내 모집인원이 40명이라면, 이는 매우 치열한 경쟁을 의미합니다.
+   - 평균적으로는 수능 국어와 수학의 성적이 높아야 안정권에 들 수 있습니다. 예를 들어, 수능 국어 105점 이상, 수학 90점 이상 등의 성적을 받으시면 안정적인 입학 가능성이 높아질 것입니다.
+4. **추가 정보**:
+   - 정확한 점수 기준은 동의대학교에서 공개하는 최종 합격선과 경쟁률을 참고하시면 좋습니다.
+   - 또한, 나군에서는 학생부교과 성적이 중요하므로, 학생부 교과 성적도 높게 유지해야 합니다.
+따라서, 법경찰행정학부에 정시로 지원하려면 수능 국어와 수학의 성적이 높아야 하며, 학생부교과 성적도 높은 것이 중요합니다. 정확한 점수 기준은 동의대학교에서 공개하는 최종 합격선을 참고하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 정시 산출 등급 평균과 표준 편차에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 아동학과의 평균 등급이 6.33이라는 구체적인 정보가 제공되고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 정확한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 요청하고 있지만, 원본 텍스트에서 제공된 아동학과의 평균 등급에 대한 정보와 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 지원하는 것에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 아동학과에 대한 정보가 더 강조되어야 했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과의 평균 등급에 대한 정보를 명확히 반영하지 않고 있으며, 이로 인해 정확성이 떨어집니다. 원본 텍스트의 구체적인 수치가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나 아동학과에 대한 정보가 더 강조되어야 했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6043122312181509</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원한다면, 해당 모집단위의 정시 산출 등급 평균과 표준 편차를 고려해야 합니다.
+현재 제공된 정보에서는 특정 단과대학 및 모집단위별로 정시 산출 등급의 평균과 표준 편차가 나와 있지 않습니다. 따라서, 보육가정상담학과에 대한 정확한 경쟁률을 판단하기 위해서는 해당 학과의 2024년도 모집단위의 정시 산출 등급 평균과 표준 편차를 확인해야 합니다.
+만약 특정 단과대학 및 모집단위의 정보가 필요하다면, 다음과 같은 링크를 참조하여 자세한 내용을 확인해 보세요: &lt;https://ipsi. deu. ac. kr/main. do&gt;
+이 링크에서 필요한 정보를 찾으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "2024년 동의대학교의 충원 합격 3차 시험"이라는 표현은 다소 모호하게 느껴질 수 있으며, "시험"이라는 단어는 원문에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 예비 번호에 따른 합격 가능성을 언급하고 있으며, 최종 발표를 기다려야 한다는 점에서도 일치합니다. 다만, "시험"이라는 표현이 원문과 다소 다르게 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 "시험"이라는 표현이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공하는 정보와 대체로 일치하지만, "시험"이라는 단어 사용이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, "시험"이라는 표현이 원문과의 의미적 일치를 약간 해치는 요소로 작용합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7087625788874744</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 충원 합격 3차 시험에서 예비 12번을 받으셨다면, 합격 가능성은 있습니다. 하지만 정확한 합격 여부는 최종 발표를 기다려야 합니다.
+합격 여부에 대한 확실한 답변을 위해서는 다음과 같은 절차를 따르시면 됩니다:
+1. **최종 합격자 발표 확인**: 입학 안내 홈페이지에서 개별적으로 조회해보세요.
+2. **고지서 수령**: 홈페이지에서 출력하거나, 입학관리팀에서 직접 수령해보세요.
+또한, 충원 합격 3차 시험에서는 많은 지원자가 있을 것으로 예상되므로, 최종 발표를 기다리시는 것이 가장 정확한 방법입니다. 만약 추가로 도움이 필요하시다면, 입학처에 문의하시거나, 해당 홈페이지에서 제공하는 자료들을 참고해보세요.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 지원하기 어려운 이유를 설명하고 있으며, 수능 점수와 관련된 정보도 제공하고 있습니다. 그러나 다군 수능의 성적 산출 방법에 대한 설명이 원본 텍스트에 명시된 내용과는 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 다군 수능의 성적 산출 방법에 대한 추가적인 설명이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 단순히 4.75의 성적이 유아교육학과에 지원하기 어려운 이유를 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 유아교육학과에 대한 지원 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 다군 수능의 성적 산출 방법에 대한 설명이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 지원하기 어려운 이유를 잘 설명하고 있지만, 다군 수능의 성적 산출 방법에 대한 정보가 원본 텍스트와 다소 다르게 표현되어 있어 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서의 차이로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 다군 수능의 성적 산출 방법에 대한 추가적인 설명이 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7674304253590853</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수로는 다군 수능(일반학생전형)에서 유아교육학과에 지원하는 것은 어려울 것으로 예상됩니다.
+다군 수능(일반학생전형)의 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (유아교육학과는 이 점수에 가산점이 추가될 수 있습니다.)
+4.75라는 점수로는 국어, 수학, 영어의 표준점수가 낮을 것으로 보입니다. 따라서 유아교육학과에 지원하는 것은 어려울 것입니다.
+그러나 최종 합격 여부는 모집단위와 전형요소 반영비율 등 여러 요인에 따라 결정되므로, 정확한 판단은 해당 모집단위의 상세 정보를 확인해야 합니다. 
+추가적으로, 수능 성적 외에도 서류평가, 면접 등의 평가 항목이 있으므로, 이들 평가에서도 좋은 점수를 받는다면 합격 가능성은 높아질 것입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 환산등급과 표준 편차에 대한 정보를 요구하고 있지만, 원본 텍스트에서는 이미 합격 가능성이 높다고 언급하고 있습니다. 따라서, 응답이 원본의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 긍정적인 언급을 무시하고 추가 정보를 요구하는 점에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 대한 추가 정보를 요청하며, 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 긍정적인 정보를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 합격 가능성에 대한 긍정적인 언급을 무시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 긍정적이지만 원본 텍스트의 핵심 메시지를 간과하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본의 긍정적인 메시지를 간과한 점은 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 추가적으로 필요하다는 점에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6049616894156983</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하시려는 계획은 좋은데, 확실한 합격 여부를 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **보육가정상담학과의 평균 환산등급**: 현재 제공된 데이터에는 보육가정상담학과의 평균 환산등급이 포함되어 있지 않습니다. 이 정보가 필요합니다.
+2. **표준 편차**: 표준 편차도 중요합니다. 표준 편차가 크면 등급의 변동성이 크므로, 4.16이라는 특정 등급만으로는 확실한 판단을 내리기 어렵습니다.
+현재 제공된 정보로는 정확히 합격할 수 있을지 알 수 없습니다. 보육가정상담학과의 평균 환산등급과 표준 편차를 확인하신 후, 자신의 등급이 평균보다 높은지 낮은지를 판단하시면 더 정확한 예측을 할 수 있습니다.
+만약 필요한 정보를 찾는 데 어려움이 있다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시거나, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 포함하고 있습니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실과 정시 지원을 위한 조건을 제시하는 것은 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원에 대한 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답의 질이 매우 낮습니다. 사실성, 일관성, 관련성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.453573217373804</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 학생부종합전형으로 지원해야 합니다. 이 전형의 경우 평균 등급을 확인해보겠습니다.
+소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)에 대한 정보를 보면, 2024년도 모집단위에서 지원한 학생들의 수능 4개 영역 등급의 평균이 5.37입니다 (표준 편차는 0.60). 이는 소프트웨어공학부에 대한 경쟁률을 고려할 때, 대략적으로 평균 5.0등급 정도를 받아야 하는 것으로 추정될 수 있습니다.
+따라서, 소프트웨어융합학과 정시로 지원하려면 수능 4개 영역 등급의 평균이 5.0등급 이상을 받는 것이 바람직할 것입니다. 하지만 이는 단순 추정이며, 실제 경쟁률이나 학교의 입학 기준에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 학교 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식과 필요한 서류에 대한 정보를 잘 전달하고 있으며, 원본 텍스트의 주요 내용을 반영하고 있습니다. 그러나 면접 점수와 서류 평가의 중요도를 비교하는 부분은 원본 텍스트에 명시되어 있지 않은 추가적인 해석이므로, 완전한 일치라고 보기는 어렵습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 면접 점수와 서류 평가의 중요도를 비교하는 부분에서 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트는 서류 평가와 면접 고사에 대한 구체적인 점수 체계를 제시하고 있으나, 생성된 응답은 이를 일반화하여 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 소프트웨어융합학과의 평가 방식과 필요한 서류에 대한 정보를 잘 다루고 있습니다. 질문에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 면접 점수와 서류 평가의 중요도를 비교하는 부분에서 약간의 논리적 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 필요한 서류에 대한 정보도 정확하게 전달하고 있습니다. 그러나 면접 점수와 서류 평가의 중요도를 비교하는 부분은 원본 텍스트에 명시된 내용이 아니므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 면접 점수와 서류 평가의 중요도를 비교하는 부분은 원본 텍스트의 의도와는 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.542102164320142</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《소프트웨어융합과 면접 점수에 대한 중요도》
+면접 점수와 서류 평가의 중요도는 비슷한 수준입니다. 각각의 영역에서 학생들의 성적을 종합적으로 판단하기 위해서는 서류와 면접 모두 중요한 역할을 합니다.
+《필요한 서류 준비》
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류(제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류(제출여부 선택 가능)
+   (외국어로 작성된 서류는 원본과 공증받은 한국어 번역본을 함께 제출하여야 합니다.)
+   (고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출하여야 합니다. 단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+   (아포스티유 협약국: 아포스티유 확인서(고교 소재국 지정기관), 영사확인(고교 소재국 한국영사관) 중 택1
+   아포스티유 비협약국: 영사확인(고교 소재국 한국영사관)
+   만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부하여야 합니다. (성적증명서에 기재된 경우에는 별도로 제출할 필요 없음))
+   (모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다. (본교 입학관리팀 확인 후 원본은 반송))
+위와 같은 서류를 준비하여 면접과 함께 제출해야 합니다. 특히 외국고교 졸업 예정자인 경우에는 아포스티유나 영사확인 등 복잡한 절차가 필요할 수 있으므로 미리 준비하는 것이 좋습니다.
+서류와 면접 모두 중요하므로, 지원동기, 학업계획, 학업역량, 전공적합성 등을 잘 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 잘못되었습니다. 응답에서는 중어중국학과의 성적을 언급하고 있지만, 질문은 소프트웨어공학부에 대한 것이므로 관련성이 떨어집니다. 또한, 4.08의 성적이 소프트웨어공학부에 대한 최초합격 가능성을 언급하는 부분이 불명확합니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 소프트웨어공학부에 대한 정보가 아닌 중어중국학과에 대한 정보를 제공하고 있어 일관성이 부족합니다. 또한, 소프트웨어공학부의 성적 기준에 대한 언급이 없고, 다른 모집단위와의 비교가 이루어져 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 질문의 주제와 관련이 있지만, 중어중국학과에 대한 정보가 포함되어 있어 직접적인 관련성이 떨어집니다. 소프트웨어공학부에 대한 정보가 부족하여 질문에 대한 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답은 여러 요소를 나열하고 있지만, 소프트웨어공학부와 관련된 정보가 부족하여 논리적인 흐름이 약간 부족합니다. 중어중국학과와의 비교가 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 응답에서 제공된 정보는 소프트웨어공학부에 대한 정확한 정보를 반영하지 않고 있으며, 중어중국학과의 성적을 언급하는 것은 질문의 맥락과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 응답은 여러 차원에서 부족함을 보이며, 특히 사실성과 일관성에서 큰 문제를 보입니다. 관련성이 떨어지고 정확한 정보가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 응답의 의미는 질문과 관련이 있지만, 중어중국학과에 대한 언급이 포함되어 있어 맥락에 맞지 않는 부분이 있습니다. 
+9. Understandability Score (1-5): 4  
+   - 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제가 일관되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7499180352074157</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 지원자의 영어 등급 평균이 4.08입니다. 이는 정시 성적 산출 예시에서 제공된 데이터를 기반으로 한 것입니다.
+하지만 정시 성적이 4.08인 지원자가 동의대학교 소프트웨어공학부에 최초합격할 수 있는지는 여러 요소가 영향을 미칩니다:
+1. **모집단위와 전형명**: 소프트웨어공학부는 다른 모집단위일 수 있으므로, 해당 단과대학의 성적 기준을 확인해야 합니다.
+2. **성적 산출 방법**: 각 전형별로 성적이 어떻게 계산되는지에 따라 결과가 달라질 수 있습니다. 예를 들어, "나군(일반학생전형)"에서는 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수를 합산합니다.
+3. **경쟁률**: 동의대학교 소프트웨어공학부의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 4.08의 성적만으로 최초합격하기는 어려울 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+1. **동의대학교 소프트웨어공학부의 성적 산출 방법**을 확인해야 합니다.
+2. **해당 단과대학의 모집 인원 및 지원 인원**를 파악해야 합니다.
+3. **최근 몇 년간의 경쟁률**을 참조해야 합니다.
+위 정보들을 바탕으로 판단할 수 있습니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 없다는 점을 잘 반영하고 있습니다. 그러나 "전형이 어떻게 이루어지는지"라는 부분은 원문에서 명확히 언급된 서류와 면접 비율을 구체적으로 설명하지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 전달하고 있습니다. 다만, 전형 요소에 대한 구체적인 비율이 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장에서 더 나은 연결이 가능할 것으로 보입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 전형 요소에 대한 구체적인 비율이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다. 다만, 일부 표현에서 더 명확한 의미 전달이 가능할 것으로 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 더 간결하게 표현할 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7287004747344998</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "소프트웨어융합학과"에 대한 정시 모집 관련 자료가 없습니다. 이 학과의 경우 전형이 어떻게 이루어지는지, 그리고 평균 등급이 어느 정도인지 명확히 알 수 없습니다.
+추가적인 정보를 얻기 위해서는 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 최신 자료를 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 표준 편차에 대한 정보를 제공하고 있지만, 이 정보는 원본 텍스트에 포함되어 있지 않습니다. 원본 텍스트는 4.28이라는 점수로 합격 가능성이 높다고 판단하고 있으며, 생성된 응답은 이를 다소 모호하게 표현하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 결론과 일치하는 부분이 있지만, 평균 점수와 표준 편차에 대한 추가 정보를 제공하면서 원본 텍스트의 명확한 판단을 흐리게 하고 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 분석을 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 다소 왜곡하여 제시하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 명확한 결론을 흐리게 하는 요소가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 평균 점수와 표준 편차 정보는 원본 텍스트에 명시되어 있지 않으며, 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 왜곡하고 있어 전반적인 품질이 떨어진다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 일치하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6200234965598002</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만, 제공된 데이터를 바탕으로 분석해보겠습니다.
+신소재공학과의 지원자들의 평균 점수가 4.15이고 표준 편차가 0.20이라는 것을 확인할 수 있습니다. 이는 지원자의 성적이 상대적으로 일관되고, 평균이 높은 편임을 의미합니다.
+4.28이라는 점수는 평균보다 약간 높습니다. 표준 편차가 0.20이라는 것은 점수가 비교적 일관되어 있다는 것을 의미하므로, 이 점수로는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+하지만, 합격 여부는 단순히 평균 성적이 높은 것뿐만 아니라 경쟁률과 지원자의 전체적인 성적 분포 등 다양한 요인에 의해 결정됩니다. 따라서, 이 점수로는 충분한 경쟁력을 갖추고 있을 것으로 보이지만, 확실하지 않은 부분도 있습니다.
+결론적으로, 4.28이라는 점수로는 신소재공학과에 합격할 가능성이 높다고 할 수 있지만, 최종 합격 여부는 동의대학교에서 발표하는 결과를 기다려야 합니다. 더 자세한 정보나 분석을 원하시면 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 부분적으로 반영하고 있지만, 일부 단과대학이나 모집단위에서 자기소개서를 요청할 수 있다는 내용은 원문과 상충합니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 자기소개서 제출이 선택적일 수 있다고 언급하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형과 자기소개서에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원문에서 명확히 자기소개서가 필요 없다고 언급한 점을 고려할 때, 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 자기소개서 작성에 대한 조언을 포함하고 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 사실적 일치가 부족합니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 낮은 점수를 받았기 때문에 전반적인 품질이 떨어집니다. 관련성은 높지만, 사실적 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 의미 전달이 완벽하지 않습니다. 자기소개서의 필요성에 대한 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6409364978345613</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 하지만 일부 단과대학이나 모집단위에서 자기소개서를 제출하도록 요청할 수 있습니다. 자세한 내용은 해당 단과대학의 입학규정을 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.
+만약 자기소개서를 작성하려면 다음과 같은 요소들을 포함해보세요:
+1. 학업 목표와 그 이유
+2. 자신의 강점과 약점
+3. 관련 경험 및 활동
+4. 미래 계획
+이러한 내용을 바탕으로 간결하고 명확하게 자기소개서를 작성하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 각 학과의 경쟁률과 모집인원에 대한 분석을 포함하고 있습니다. 그러나, 구체적인 평균 등급과 표준 편차에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 등급 4.5에 대한 합격 가능성을 논의하고 있습니다. 다만, 일부 학과의 경쟁률에 대한 정보가 원본 텍스트와 완전히 일치하지 않을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 수능 등급 4.5로 동의대학교에 지원하는 것에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 경쟁률과 추가 모집에 대한 정보를 체계적으로 제시하고 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 등급과 관련된 정보도 정확하게 전달하고 있습니다. 그러나 구체적인 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7049552876345005</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급으로 동의대학교에 지원하려면, 해당 학과의 경쟁률과 모집인원 등을 고려해야 합니다. 제공된 데이터를 바탕으로 분석해보겠습니다.
+1. **공과대학**: 
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 0.87의 경쟁률로 지원 가능성이 낮습니다.
+   - 조선해양공학과: 0.83의 경쟁률로 지원 가능성은 있지만, 모집인원이 적어 경쟁이 치열할 수 있습니다.
+   - 신소재공학과, 분자나노공학과: 1.45의 경쟁률로 지원 가능성이 낮습니다.
+2. **ICT융합공과대학**:
+   - 컴퓨터공학과: 4.25의 경쟁률로 지원 가능성은 있지만, 모집인원이 적어 경쟁이 치열할 수 있습니다.
+   - 소프트웨어공학부: 4.87의 경쟁률로 지원 가능성이 낮습니다.
+   - 인공지능학과: 1.60의 경쟁률로 지원 가능성은 있지만, 모집인원이 적어 경쟁이 치열할 수 있습니다.
+3. **추가모집**:
+   - 추가모집 시점에 따라 모집인원이 늘어나거나 경쟁률이 낮아질 수 있으므로, 추가모집 정보를 확인해보는 것이 좋습니다.
+   - 일부 학과에서는 추가모집을 통해 지원 가능성이 높아질 수 있습니다.
+따라서 4.5의 수능 등급으로 동의대학교에 지원하려면, 해당 학과의 경쟁률과 모집인원 등을 고려하여 결정해야 합니다. 특히 추가모집 정보를 확인하는 것이 중요합니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 정시 등급 정보가 명확히 언급되어 있지 않다고 주장하고 있지만, 원본 텍스트에서는 평균 등급에 대한 구체적인 수치가 제공되고 있습니다. 따라서, 응답은 일부 사실을 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정시 등급에 대한 구체적인 정보를 제공하지 않기 때문에 완전한 관련성을 갖추고 있지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 평균 등급에 대한 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이하의 성과를 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6277073873696458</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 신소재공학과의 정시 등급 정보가 제공된 문서 내에서는 명확히 언급되어 있지 않습니다. 
+문서에서 제공된 정보 중에는 신소재공학과에 대한 모집단위나 모집인원, 학과 분리 등의 내용이 있지만, 정시 등급 기준은 포함되어 있지 않습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 모집요강을 확인하거나, 대학 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 447점의 표준 점수가 작년 신소재공학과의 평균 점수보다 높다는 점을 언급하고 있지만, "어렵지 않을까 싶습니다"라는 표현은 다소 모호하며, 실제로 합격 가능성이 높다는 원문과는 상반된 인상을 줄 수 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하는 부분이 있지만, "어렵지 않을까 싶습니다"라는 표현은 원문에서의 긍정적인 가능성과 상충하는 느낌을 줍니다. 따라서, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 신소재공학과의 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 약간의 불확실성을 언급함으로써 주제에서 벗어나는 경향이 있어, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 모호함이 있어, 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 언급이 다소 부정적인 방향으로 해석될 수 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 다소 부족함이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, "어렵지 않을까 싶습니다"라는 표현이 원문의 긍정적인 의미와 상충하여 의미적으로 적절하지 않을 수 있습니다. 따라서, 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7216835151711832</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 동의대학교 정시에 해당하는 학과 중에서 작년 최종 평균 점수를 넘는 것은 어렵지 않을까 싶습니다. 하지만, 정확한 가능성은 작년의 모집 상황이나 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다.
+특히, 작년 신소재공학과의 경우 표준 변환 점수가 447점보다 약간 높았다면, 올해에도 비슷한 경쟁률이 유지될 가능성이 있습니다. 하지만, 이는 단순 비교만으로 판단하기에는 한계가 있어, 작년의 모집 상황과 경쟁률을 고려하여 더 정확한 예측을 할 수 있을 것 같습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 불확실성을 강조하고 있으며, 지원 인원과 경쟁률을 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적과 비교하여 합격 가능성이 높다고 언급한 부분이 누락되어 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 합격 가능성에 대한 결론이 상반된 정보를 제공합니다. 원본 텍스트는 성적이 평균보다 높다고 하여 합격 가능성이 높다고 했으나, 생성된 응답은 확실하지 않다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보(모집단위, 지원 인원, 경쟁률 등)를 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보와 비교하는 내용이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 합격 가능성에 대한 결론이 원본 텍스트의 내용과 상충하는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5428978510406168</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급대의 성적이면 신소재공학과에 붙을 수 있을지 확실하지 않습니다. 신소재공학과의 경우 모집단위와 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 신소재공학과의 2024년도 모집인원, 지원 인원, 경쟁률 등 추가적인 데이터를 확인해 보시기 바랍니다. 
+특히, 경쟁률이 높은 경우 4.1~4.2등급대는 충분한 점수가 아니라고 판단될 수 있습니다. 따라서, 정확한 정보를 얻으려면 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 최신 데이터를 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.
+추가적으로, 다른 전형명과 모집단위도 고려해 보시는 것도 좋은 방법입니다. 다양한 전형을 통해 합격 확률을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 제공하고 있지만, 실제 성적 데이터와는 다르게 구체적인 수치와 계산 방법을 제시하고 있습니다. 예를 들어, "총 합산 점수가 160.4 이상이어야 한다"는 정보는 원본 텍스트에 명시된 평균 점수와는 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 성적 산출 방법과 관련된 수치가 원본 텍스트의 평균 점수와 다르며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 성적 산출 방법과 관련된 정보가 원본 텍스트와 일치하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답의 성적 산출 방법과 결과는 원본 텍스트의 정보와 일치하지 않으며, 이는 정확성을 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 수치와 계산이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7793621844979349</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과로 수능 일반학생전형을 지원하려면, 다음과 같은 성적이 필요합니다.
+1. **국어 표준점수**: 국어는 표준점수가 필요하며, 평균적으로 높은 점수를 받는 것이 좋습니다.
+2. **수학 표준점수**: 수학(미적분 또는 기하)을 응시한 경우, 표준점수와 가산점을 합산해야 합니다. 예를 들어, 수학(미적분)의 표준점수가 108이고, 가산점이 108 x 0.1 = 10.8이라면, 총 점수는 118.8입니다.
+3. **영어 등급점수**: 영어 등급에 따른 점수를 받습니다. 예를 들어, 4등급의 경우 115점이 됩니다.
+4. **탐구 표준점수**: 탐구 영역 중에서 국어국문학과 또는 사회(역사/도덕 포함)와 과학교과를 선택하여 점수를 받습니다.
+**예시 성적 산출 방법:**
+- 국어 표준점수: 104
+- 수학 표준점수 (미적분): 108, 가산점: 10.8 → 총 점수: 118.8
+- 영어 등급점수: 4등급 (115)
+- 탐구 표준점수: 국어국문학과 (92)
+**총 합산 점수:**
+(104 + 118.8 + 115 + 92) ÷ 2 = 320.8 ÷ 2 = 160.4
+따라서, 동의대학교 인공지능학과로 수능 일반학생전형을 지원하려면, 총 합산 점수가 160.4 이상이어야 합니다.
+만약 더 자세한 정보나 다른 질문이 있으시다면, 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 학과와 성적 평균에 대한 정보가 누락되어 있습니다. 또한, 경쟁률에 대한 언급이 있지만, 이는 원본 텍스트의 주요 내용과는 다소 다른 방향으로 나아가고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 경쟁률과 같은 추가적인 정보를 제공하면서 원본의 핵심 내용과는 일치하지 않는 부분이 있습니다. 특히, 특정 학과에 대한 성적 평균과 표준 편차를 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트에서 제시된 구체적인 학과와 성적에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어집니다. 특히, 성적 평균과 표준 편차에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있어 완전한 적합성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6466567028352507</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교의 정시에 지원이 가능할지는 모집단위와 모집인원, 지원 인원 등을 고려해야 합니다. 제공된 데이터를 바탕으로 분석해보겠습니다.
+1. **모집단위별 경쟁률 확인**:
+   - 현재 제공된 데이터는 2024학년도의 정보입니다. 동의대학교의 정시 모집에 대한 최신 정보가 필요합니다.
+   - 예를 들어, '상경대학 호텔·컨벤션경영학과'의 경우, 지원 인원이 9명이고 모집인원은 6명이므로 경쟁률이 1.50입니다.
+2. **성적 평균 및 표준 편차 확인**:
+   - '상경대학 호텔·컨벤션경영학과'의 경우, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 257.00이고 표준 편차는 31.27입니다.
+   - 이 성적을 기반으로, 동일한 모집단위에서 경쟁률이 높다면 257.00 이상의 점수를 얻어야 할 가능성이 있습니다.
+3. **성적 비교**:
+   - 제공된 데이터 중 가장 가까운 성적은 '상경대학 호텔·컨벤션경영학과'의 평균 점수인 257.00입니다.
+   - 5.27이라는 수능 등급을 가지고 이 모집단위에 지원하는 것은 가능할 것으로 보이지만, 경쟁률이 높은 모집단위에서는 낮은 성적로 충원되지 않을 가능성이 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 2024학년도 정시 모집에 대한 최신 정보와 해당 모집단위의 경쟁률 등을 확인해야 합니다. 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조하여 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 점수와 관련된 정보를 제공하지만, 원본 텍스트의 핵심 사실인 정시 등급 4.2에 대한 합격 가능성을 잘못 해석하고 있습니다. 원본에서는 4.2가 평균 등급보다 높다고 언급했으나, 생성된 응답에서는 4.2가 낮은 점수라고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.2가 합격 가능성이 높다고 했지만, 생성된 응답에서는 4.2가 낮은 점수라고 하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하며, 지원자의 평균 점수와 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 4.2의 점수에 대한 잘못된 결론을 도출하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 혼합으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6726620894577985</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부에 대한 정보를 보면, 2024학년도 지원자의 평균 점수와 표준 편차가 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 330.11
+  - 표준 편차: 9.08
+- **영어 등급**:
+  - 평균: 3.30
+  - 표준 편차: 0.82
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 450.71
+  - 표준 편차: 10.11
+이 정보를 바탕으로, 정시 성적 4.2의 경우 동의대학교 소프트웨어공학부에 지원하는 것은 어렵다고 볼 수 있습니다. 평균 점수가 450.71이고 표준 편차가 10.11이므로, 4.2는 상당히 낮은 점수입니다.
+하지만, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+- **경쟁률**: 현재 정보로는 경쟁률을 알 수 없으므로, 이 부분도 고려해야 합니다.
+- **개인의 특성**: 개인의 진로 선택과목 성적 등이 합격 여부에 영향을 줄 수 있습니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 동의대학교 소프트웨어공학부의 최종 합격 기준 점수와 경쟁률 등을 확인해 보시는 것이 좋습니다. 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 정시 모집에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제시된 3.92의 성적이 합격 가능성이 높다는 정보는 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 3.92의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그에 대한 확신을 주지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 정시 모집에 대한 정보를 찾는 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 직접적으로 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 않고 있으며, 3.92의 성적에 대한 구체적인 판단을 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7082157111428147</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 화학환경공학부의 정시 모집에 대한 자세한 내용을 확인하기 어렵습니다. 동의대학교의 정시 모집에 관한 모든 세부 사항은 공식 웹사이트에서 확인해야 합니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+위 링크를 클릭하여 동의대학교의 공식 웹사이트를 방문하시고, 정시 모집에 대한 자세한 정보와 성적 산출 기준을 확인해보세요.
+특히 화학환경공학부의 경우 모집단위와 모집인원, 수능 성적 산출 방법 등 세부 사항이 필요합니다. 해당 정보를 통해 3.92라는 점수로는 지원 가능한지 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 4.25라는 성적이 최초합격자의 평균값보다 높아 합격 가능성이 높다고 판단했으나, 생성된 응답은 반대로 합격 가능성이 높지 않다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 합격 가능성이 높다고 했지만, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 왜곡하여 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 4.25라는 성적이 합격 가능성이 높다고 한 원본의 주장을 반박하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 원본 텍스트와의 불일치로 인해 낮은 평가를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 왜곡하여 전달하고 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7244801800476128</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 높지 않을 것으로 보입니다.
+수능 일반학생전형의 경우, 각 모집단위별로 평균 점수가 다르고 경쟁률이 높습니다. 예를 들어 인문사회과학대학 국어국문학과의 경우 평균 점수가 303.44였으며, 이는 4.25라는 성적을 가지고 합격하기에는 어려울 것으로 판단됩니다.
+하지만 정확한 합격 가능성은 해당 모집단위의 경쟁률과 지원 인원 등을 고려하여 결정해야 합니다. 또한 수능 점수 외에도 다른 요소들이 합격에 영향을 미치므로, 전형별로 반영되는 요소들을 잘 이해하고 준비하는 것이 중요합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 직접 입학처와 연락하여 확인하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제공된 데이터에 기반하여 4.2 점수가 평균보다 낮다는 점을 언급하고 있으며, 경쟁률과 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나, "충원 합격 인원이 6명"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(경쟁률, 지원 인원 등)가 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 특히, 합격 가능성에 대한 언급이 원본 텍스트와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 세부사항(경쟁률, 지원 인원 등)이 포함되어 있어 정확성에 약간의 의문을 제기합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6069399644753768</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 평균 및 표준 편차를 고려할 때, 영화학과의 경우 평균이 5.04이고 표준 편차가 0.76인 것을 볼 수 있습니다. 따라서 4.2라는 점수는 약간 낮은 편입니다.
+영화학과의 경우 지원 인원이 11명이고 충원 합격 인원이 6명으로, 경쟁률이 1.83입니다. 이는 상대적으로 낮은 경쟁률을 보여주며, 평균 점수가 5.04라는 것을 고려할 때, 4.2점수로 합격 가능성은 있지만 확실하지 않습니다.
+따라서, 정확한 합격 여부를 판단하기 위해서는 해당 대학의 최저 합격 점수나 이전년도의 합격자들의 평균 점수 등을 참고해야 합니다. 또한, 지원자의 개인적인 경쟁력을 고려할 때, 실기 성적이나 면접 등 다른 평가 요소들도 중요한 역할을 하므로, 이러한 부분들을 잘 준비하는 것이 중요합니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 많은 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 주요 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 세부사항이 추가되어 있어 완전한 일치를 이루지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본 텍스트의 내용과 완전히 일치하지는 않지만, 전반적으로 일관된 흐름을 가지고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 단계가 잘 연결되어 있습니다. 그러나 추가된 정보가 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되지 않은 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.782872500686309</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다. 또한, 블라인드 면접 방식으로 개인 신상 정보 (수험번호, 성명, 출신고교, 부모 직업 등) 노출이 금지되며 교복 착용도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
